--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_36ha_100ha_6%_0m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel40/field_36ha_100ha_6%_0m_0_TSP/Planilha_Unificada.xlsx
@@ -6477,28 +6477,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2019.754729039589</v>
+        <v>2165.4722565577</v>
       </c>
       <c r="AB2" t="n">
-        <v>2763.517525561874</v>
+        <v>2962.89467531576</v>
       </c>
       <c r="AC2" t="n">
-        <v>2499.771291543455</v>
+        <v>2680.120165952418</v>
       </c>
       <c r="AD2" t="n">
-        <v>2019754.729039589</v>
+        <v>2165472.2565577</v>
       </c>
       <c r="AE2" t="n">
-        <v>2763517.525561874</v>
+        <v>2962894.67531576</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.18399110184661e-07</v>
+        <v>1.214489340001878e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>29</v>
+        <v>28.20216049382716</v>
       </c>
       <c r="AH2" t="n">
-        <v>2499771.291543455</v>
+        <v>2680120.165952418</v>
       </c>
     </row>
     <row r="3">
@@ -6583,28 +6583,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1192.364868543182</v>
+        <v>1306.753513084428</v>
       </c>
       <c r="AB3" t="n">
-        <v>1631.446216566219</v>
+        <v>1787.957806498387</v>
       </c>
       <c r="AC3" t="n">
-        <v>1475.743279406285</v>
+        <v>1617.317622860722</v>
       </c>
       <c r="AD3" t="n">
-        <v>1192364.868543182</v>
+        <v>1306753.513084428</v>
       </c>
       <c r="AE3" t="n">
-        <v>1631446.216566219</v>
+        <v>1787957.806498387</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.017543881850121e-06</v>
+        <v>1.720208418929483e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.91126543209877</v>
       </c>
       <c r="AH3" t="n">
-        <v>1475743.279406284</v>
+        <v>1617317.622860722</v>
       </c>
     </row>
     <row r="4">
@@ -6689,28 +6689,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>1017.211782357307</v>
+        <v>1121.185942693972</v>
       </c>
       <c r="AB4" t="n">
-        <v>1391.7940368379</v>
+        <v>1534.056070026744</v>
       </c>
       <c r="AC4" t="n">
-        <v>1258.963167357289</v>
+        <v>1387.647911764608</v>
       </c>
       <c r="AD4" t="n">
-        <v>1017211.782357307</v>
+        <v>1121185.942693972</v>
       </c>
       <c r="AE4" t="n">
-        <v>1391794.0368379</v>
+        <v>1534056.070026744</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.134817455433157e-06</v>
+        <v>1.918465213740814e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.85493827160494</v>
       </c>
       <c r="AH4" t="n">
-        <v>1258963.167357289</v>
+        <v>1387647.911764608</v>
       </c>
     </row>
     <row r="5">
@@ -6795,28 +6795,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>936.2484225176864</v>
+        <v>1029.893439504342</v>
       </c>
       <c r="AB5" t="n">
-        <v>1281.016396053985</v>
+        <v>1409.145639621702</v>
       </c>
       <c r="AC5" t="n">
-        <v>1158.757989132396</v>
+        <v>1274.658757524533</v>
       </c>
       <c r="AD5" t="n">
-        <v>936248.4225176864</v>
+        <v>1029893.439504342</v>
       </c>
       <c r="AE5" t="n">
-        <v>1281016.396053985</v>
+        <v>1409145.639621702</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.199677671902055e-06</v>
+        <v>2.028114627799028e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.89043209876543</v>
       </c>
       <c r="AH5" t="n">
-        <v>1158757.989132396</v>
+        <v>1274658.757524533</v>
       </c>
     </row>
     <row r="6">
@@ -6901,28 +6901,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>896.4073517158132</v>
+        <v>979.6379740064393</v>
       </c>
       <c r="AB6" t="n">
-        <v>1226.504085318868</v>
+        <v>1340.38389461281</v>
       </c>
       <c r="AC6" t="n">
-        <v>1109.44825682533</v>
+        <v>1212.459536951574</v>
       </c>
       <c r="AD6" t="n">
-        <v>896407.3517158132</v>
+        <v>979637.9740064393</v>
       </c>
       <c r="AE6" t="n">
-        <v>1226504.085318868</v>
+        <v>1340383.89461281</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.239801724843139e-06</v>
+        <v>2.095946330099009e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.3425925925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>1109448.25682533</v>
+        <v>1212459.536951574</v>
       </c>
     </row>
     <row r="7">
@@ -7007,28 +7007,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>859.7804660399556</v>
+        <v>953.3401421720397</v>
       </c>
       <c r="AB7" t="n">
-        <v>1176.389564473005</v>
+        <v>1304.402040918525</v>
       </c>
       <c r="AC7" t="n">
-        <v>1064.116595512824</v>
+        <v>1179.911740873023</v>
       </c>
       <c r="AD7" t="n">
-        <v>859780.4660399556</v>
+        <v>953340.1421720397</v>
       </c>
       <c r="AE7" t="n">
-        <v>1176389.564473005</v>
+        <v>1304402.040918525</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.266691142520933e-06</v>
+        <v>2.141404224834075e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.99537037037037</v>
       </c>
       <c r="AH7" t="n">
-        <v>1064116.595512824</v>
+        <v>1179911.740873023</v>
       </c>
     </row>
     <row r="8">
@@ -7113,28 +7113,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>839.0140217656486</v>
+        <v>922.3298954022952</v>
       </c>
       <c r="AB8" t="n">
-        <v>1147.975999266036</v>
+        <v>1261.972453212627</v>
       </c>
       <c r="AC8" t="n">
-        <v>1038.414781090519</v>
+        <v>1141.531573467475</v>
       </c>
       <c r="AD8" t="n">
-        <v>839014.0217656486</v>
+        <v>922329.8954022952</v>
       </c>
       <c r="AE8" t="n">
-        <v>1147975.999266036</v>
+        <v>1261972.453212627</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.288223684020729e-06</v>
+        <v>2.177806054602389e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.72916666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>1038414.781090519</v>
+        <v>1141531.573467475</v>
       </c>
     </row>
     <row r="9">
@@ -7219,28 +7219,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>824.2719595622668</v>
+        <v>907.5878331989134</v>
       </c>
       <c r="AB9" t="n">
-        <v>1127.805259385485</v>
+        <v>1241.801713332077</v>
       </c>
       <c r="AC9" t="n">
-        <v>1020.169108314357</v>
+        <v>1123.285900691314</v>
       </c>
       <c r="AD9" t="n">
-        <v>824271.9595622668</v>
+        <v>907587.8331989134</v>
       </c>
       <c r="AE9" t="n">
-        <v>1127805.259385485</v>
+        <v>1241801.713332077</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.303086389494978e-06</v>
+        <v>2.202932195637591e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.54783950617284</v>
       </c>
       <c r="AH9" t="n">
-        <v>1020169.108314357</v>
+        <v>1123285.900691314</v>
       </c>
     </row>
     <row r="10">
@@ -7325,28 +7325,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>813.1707786248261</v>
+        <v>896.3160600608805</v>
       </c>
       <c r="AB10" t="n">
-        <v>1112.616133877341</v>
+        <v>1226.379176049086</v>
       </c>
       <c r="AC10" t="n">
-        <v>1006.429611626638</v>
+        <v>1109.335268720944</v>
       </c>
       <c r="AD10" t="n">
-        <v>813170.7786248261</v>
+        <v>896316.0600608805</v>
       </c>
       <c r="AE10" t="n">
-        <v>1112616.133877341</v>
+        <v>1226379.176049086</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.314115252214386e-06</v>
+        <v>2.22157703527502e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.42052469135803</v>
       </c>
       <c r="AH10" t="n">
-        <v>1006429.611626638</v>
+        <v>1109335.268720944</v>
       </c>
     </row>
     <row r="11">
@@ -7431,28 +7431,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>803.0189192168973</v>
+        <v>886.1642006529516</v>
       </c>
       <c r="AB11" t="n">
-        <v>1098.725911966985</v>
+        <v>1212.488954138729</v>
       </c>
       <c r="AC11" t="n">
-        <v>993.8650530003574</v>
+        <v>1096.770710094663</v>
       </c>
       <c r="AD11" t="n">
-        <v>803018.9192168973</v>
+        <v>886164.2006529516</v>
       </c>
       <c r="AE11" t="n">
-        <v>1098725.911966985</v>
+        <v>1212488.954138729</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.323043379177717e-06</v>
+        <v>2.236670476886272e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.31635802469136</v>
       </c>
       <c r="AH11" t="n">
-        <v>993865.0530003575</v>
+        <v>1096770.710094663</v>
       </c>
     </row>
     <row r="12">
@@ -7537,28 +7537,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>793.2390605085185</v>
+        <v>876.3843419445727</v>
       </c>
       <c r="AB12" t="n">
-        <v>1085.344677825265</v>
+        <v>1199.10771999701</v>
       </c>
       <c r="AC12" t="n">
-        <v>981.7609050644436</v>
+        <v>1084.666562158749</v>
       </c>
       <c r="AD12" t="n">
-        <v>793239.0605085185</v>
+        <v>876384.3419445727</v>
       </c>
       <c r="AE12" t="n">
-        <v>1085344.677825265</v>
+        <v>1199107.719997009</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.331813950959341e-06</v>
+        <v>2.251497563645561e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.21219135802469</v>
       </c>
       <c r="AH12" t="n">
-        <v>981760.9050644436</v>
+        <v>1084666.562158749</v>
       </c>
     </row>
     <row r="13">
@@ -7643,28 +7643,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>786.823134169849</v>
+        <v>859.7246131104657</v>
       </c>
       <c r="AB13" t="n">
-        <v>1076.566124358004</v>
+        <v>1176.31314403082</v>
       </c>
       <c r="AC13" t="n">
-        <v>973.8201644193211</v>
+        <v>1064.047468530385</v>
       </c>
       <c r="AD13" t="n">
-        <v>786823.134169849</v>
+        <v>859724.6131104657</v>
       </c>
       <c r="AE13" t="n">
-        <v>1076566.124358004</v>
+        <v>1176313.14403082</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.336540606410516e-06</v>
+        <v>2.259488209204459e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>15.15817901234568</v>
       </c>
       <c r="AH13" t="n">
-        <v>973820.1644193211</v>
+        <v>1064047.468530385</v>
       </c>
     </row>
     <row r="14">
@@ -7749,28 +7749,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>778.020257494147</v>
+        <v>850.9217364347637</v>
       </c>
       <c r="AB14" t="n">
-        <v>1064.521640134799</v>
+        <v>1164.268659807615</v>
       </c>
       <c r="AC14" t="n">
-        <v>962.9251888658384</v>
+        <v>1053.152492976902</v>
       </c>
       <c r="AD14" t="n">
-        <v>778020.2574941471</v>
+        <v>850921.7364347638</v>
       </c>
       <c r="AE14" t="n">
-        <v>1064521.640134799</v>
+        <v>1164268.659807615</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.343998218344591e-06</v>
+        <v>2.272095672197388e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>16</v>
+        <v>15.07716049382716</v>
       </c>
       <c r="AH14" t="n">
-        <v>962925.1888658385</v>
+        <v>1053152.492976902</v>
       </c>
     </row>
     <row r="15">
@@ -7855,28 +7855,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>772.0489819843079</v>
+        <v>844.9504609249249</v>
       </c>
       <c r="AB15" t="n">
-        <v>1056.351477548154</v>
+        <v>1156.098497220969</v>
       </c>
       <c r="AC15" t="n">
-        <v>955.5347751295676</v>
+        <v>1045.762079240631</v>
       </c>
       <c r="AD15" t="n">
-        <v>772048.981984308</v>
+        <v>844950.4609249248</v>
       </c>
       <c r="AE15" t="n">
-        <v>1056351.477548154</v>
+        <v>1156098.49722097</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.348147171462845e-06</v>
+        <v>2.279109683299087e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>16</v>
+        <v>15.03086419753086</v>
       </c>
       <c r="AH15" t="n">
-        <v>955534.7751295676</v>
+        <v>1045762.079240631</v>
       </c>
     </row>
     <row r="16">
@@ -7961,28 +7961,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>754.8768134242969</v>
+        <v>838.1073462063719</v>
       </c>
       <c r="AB16" t="n">
-        <v>1032.855758941737</v>
+        <v>1146.735445766131</v>
       </c>
       <c r="AC16" t="n">
-        <v>934.2814549304993</v>
+        <v>1037.292624275517</v>
       </c>
       <c r="AD16" t="n">
-        <v>754876.8134242969</v>
+        <v>838107.3462063719</v>
       </c>
       <c r="AE16" t="n">
-        <v>1032855.758941737</v>
+        <v>1146735.445766131</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.352926345307921e-06</v>
+        <v>2.28718911380864e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14.97685185185185</v>
       </c>
       <c r="AH16" t="n">
-        <v>934281.4549304993</v>
+        <v>1037292.624275517</v>
       </c>
     </row>
     <row r="17">
@@ -8067,28 +8067,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>749.4619820573752</v>
+        <v>832.6925148394502</v>
       </c>
       <c r="AB17" t="n">
-        <v>1025.446947780015</v>
+        <v>1139.326634604408</v>
       </c>
       <c r="AC17" t="n">
-        <v>927.5797303077196</v>
+        <v>1030.590899652738</v>
       </c>
       <c r="AD17" t="n">
-        <v>749461.9820573751</v>
+        <v>832692.5148394501</v>
       </c>
       <c r="AE17" t="n">
-        <v>1025446.947780015</v>
+        <v>1139326.634604408</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.355394709821313e-06</v>
+        <v>2.291362006489398e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>14.94984567901235</v>
       </c>
       <c r="AH17" t="n">
-        <v>927579.7303077197</v>
+        <v>1030590.899652738</v>
       </c>
     </row>
     <row r="18">
@@ -8173,28 +8173,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>742.185271479396</v>
+        <v>825.415804261471</v>
       </c>
       <c r="AB18" t="n">
-        <v>1015.49063134141</v>
+        <v>1129.370318165803</v>
       </c>
       <c r="AC18" t="n">
-        <v>918.5736307362373</v>
+        <v>1021.584800081255</v>
       </c>
       <c r="AD18" t="n">
-        <v>742185.2714793959</v>
+        <v>825415.8042614709</v>
       </c>
       <c r="AE18" t="n">
-        <v>1015490.63134141</v>
+        <v>1129370.318165803</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.360436475635899e-06</v>
+        <v>2.299885361752223e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>14.89197530864198</v>
       </c>
       <c r="AH18" t="n">
-        <v>918573.6307362373</v>
+        <v>1021584.800081255</v>
       </c>
     </row>
     <row r="19">
@@ -8279,28 +8279,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>737.9856397887964</v>
+        <v>821.2161725708715</v>
       </c>
       <c r="AB19" t="n">
-        <v>1009.744509987657</v>
+        <v>1123.624196812051</v>
       </c>
       <c r="AC19" t="n">
-        <v>913.3759111397552</v>
+        <v>1016.387080484773</v>
       </c>
       <c r="AD19" t="n">
-        <v>737985.6397887964</v>
+        <v>821216.1725708715</v>
       </c>
       <c r="AE19" t="n">
-        <v>1009744.509987657</v>
+        <v>1123624.196812051</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.362274619422467e-06</v>
+        <v>2.302992835025128e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>14.87268518518518</v>
       </c>
       <c r="AH19" t="n">
-        <v>913375.9111397552</v>
+        <v>1016387.080484773</v>
       </c>
     </row>
     <row r="20">
@@ -8385,28 +8385,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>733.0386723727601</v>
+        <v>816.269205154835</v>
       </c>
       <c r="AB20" t="n">
-        <v>1002.975850924237</v>
+        <v>1116.85553774863</v>
       </c>
       <c r="AC20" t="n">
-        <v>907.2532433974748</v>
+        <v>1010.264412742493</v>
       </c>
       <c r="AD20" t="n">
-        <v>733038.67237276</v>
+        <v>816269.205154835</v>
       </c>
       <c r="AE20" t="n">
-        <v>1002975.850924237</v>
+        <v>1116855.53774863</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.364742983935858e-06</v>
+        <v>2.307165727705885e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>14.84567901234568</v>
       </c>
       <c r="AH20" t="n">
-        <v>907253.2433974748</v>
+        <v>1010264.412742493</v>
       </c>
     </row>
     <row r="21">
@@ -8491,28 +8491,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>727.4890003564041</v>
+        <v>810.7195331384793</v>
       </c>
       <c r="AB21" t="n">
-        <v>995.3825448372089</v>
+        <v>1109.262231661603</v>
       </c>
       <c r="AC21" t="n">
-        <v>900.384631786121</v>
+        <v>1003.395801131139</v>
       </c>
       <c r="AD21" t="n">
-        <v>727489.0003564041</v>
+        <v>810719.5331384792</v>
       </c>
       <c r="AE21" t="n">
-        <v>995382.5448372089</v>
+        <v>1109262.231661603</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.367631495600465e-06</v>
+        <v>2.312048899991879e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>15</v>
+        <v>14.81481481481482</v>
       </c>
       <c r="AH21" t="n">
-        <v>900384.6317861209</v>
+        <v>1003395.801131139</v>
       </c>
     </row>
     <row r="22">
@@ -8597,28 +8597,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>722.5830003629254</v>
+        <v>805.8135331450005</v>
       </c>
       <c r="AB22" t="n">
-        <v>988.6699392086873</v>
+        <v>1102.549626033081</v>
       </c>
       <c r="AC22" t="n">
-        <v>894.3126678175842</v>
+        <v>997.323837162602</v>
       </c>
       <c r="AD22" t="n">
-        <v>722583.0003629255</v>
+        <v>805813.5331450006</v>
       </c>
       <c r="AE22" t="n">
-        <v>988669.9392086873</v>
+        <v>1102549.626033081</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.369574676174837e-06</v>
+        <v>2.315333943166093e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>15</v>
+        <v>14.79552469135803</v>
       </c>
       <c r="AH22" t="n">
-        <v>894312.6678175841</v>
+        <v>997323.837162602</v>
       </c>
     </row>
     <row r="23">
@@ -8703,28 +8703,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>716.9381050080226</v>
+        <v>800.1686377900976</v>
       </c>
       <c r="AB23" t="n">
-        <v>980.9463443489021</v>
+        <v>1094.826031173296</v>
       </c>
       <c r="AC23" t="n">
-        <v>887.3262020110832</v>
+        <v>990.337371356101</v>
       </c>
       <c r="AD23" t="n">
-        <v>716938.1050080226</v>
+        <v>800168.6377900976</v>
       </c>
       <c r="AE23" t="n">
-        <v>980946.3443489021</v>
+        <v>1094826.031173296</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.372253114263836e-06</v>
+        <v>2.319861975649468e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>15</v>
+        <v>14.76466049382716</v>
       </c>
       <c r="AH23" t="n">
-        <v>887326.2020110831</v>
+        <v>990337.371356101</v>
       </c>
     </row>
     <row r="24">
@@ -8809,28 +8809,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>712.206613520955</v>
+        <v>795.4371463030302</v>
       </c>
       <c r="AB24" t="n">
-        <v>974.4725089576237</v>
+        <v>1088.352195782017</v>
       </c>
       <c r="AC24" t="n">
-        <v>881.4702203834636</v>
+        <v>984.4813897284814</v>
       </c>
       <c r="AD24" t="n">
-        <v>712206.613520955</v>
+        <v>795437.1463030302</v>
       </c>
       <c r="AE24" t="n">
-        <v>974472.5089576237</v>
+        <v>1088352.195782017</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.372463187839444e-06</v>
+        <v>2.320217115452087e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>15</v>
+        <v>14.76466049382716</v>
       </c>
       <c r="AH24" t="n">
-        <v>881470.2203834635</v>
+        <v>984481.3897284814</v>
       </c>
     </row>
     <row r="25">
@@ -8915,28 +8915,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>709.1962956290655</v>
+        <v>792.4268284111406</v>
       </c>
       <c r="AB25" t="n">
-        <v>970.3536592120882</v>
+        <v>1084.233346036482</v>
       </c>
       <c r="AC25" t="n">
-        <v>877.7444678767998</v>
+        <v>980.7556372218179</v>
       </c>
       <c r="AD25" t="n">
-        <v>709196.2956290655</v>
+        <v>792426.8284111406</v>
       </c>
       <c r="AE25" t="n">
-        <v>970353.6592120882</v>
+        <v>1084233.346036482</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.374616441989423e-06</v>
+        <v>2.323857298428918e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>15</v>
+        <v>14.74151234567901</v>
       </c>
       <c r="AH25" t="n">
-        <v>877744.4678767999</v>
+        <v>980755.6372218179</v>
       </c>
     </row>
     <row r="26">
@@ -9021,28 +9021,28 @@
         <v>10</v>
       </c>
       <c r="AA26" t="n">
-        <v>709.9441973679592</v>
+        <v>793.1747301500344</v>
       </c>
       <c r="AB26" t="n">
-        <v>971.3769713663387</v>
+        <v>1085.256658190732</v>
       </c>
       <c r="AC26" t="n">
-        <v>878.6701165552764</v>
+        <v>981.6812859002944</v>
       </c>
       <c r="AD26" t="n">
-        <v>709944.1973679592</v>
+        <v>793174.7301500344</v>
       </c>
       <c r="AE26" t="n">
-        <v>971376.9713663387</v>
+        <v>1085256.658190732</v>
       </c>
       <c r="AF26" t="n">
-        <v>1.37424881323211e-06</v>
+        <v>2.323235803774336e-06</v>
       </c>
       <c r="AG26" t="n">
-        <v>15</v>
+        <v>14.74537037037037</v>
       </c>
       <c r="AH26" t="n">
-        <v>878670.1165552764</v>
+        <v>981681.2859002943</v>
       </c>
     </row>
     <row r="27">
@@ -9127,28 +9127,28 @@
         <v>10</v>
       </c>
       <c r="AA27" t="n">
-        <v>712.326310618236</v>
+        <v>795.5568434003111</v>
       </c>
       <c r="AB27" t="n">
-        <v>974.6362838067867</v>
+        <v>1088.51597063118</v>
       </c>
       <c r="AC27" t="n">
-        <v>881.618364790882</v>
+        <v>984.6295341358997</v>
       </c>
       <c r="AD27" t="n">
-        <v>712326.310618236</v>
+        <v>795556.8434003111</v>
       </c>
       <c r="AE27" t="n">
-        <v>974636.2838067866</v>
+        <v>1088515.97063118</v>
       </c>
       <c r="AF27" t="n">
-        <v>1.374301331626012e-06</v>
+        <v>2.323324588724991e-06</v>
       </c>
       <c r="AG27" t="n">
-        <v>15</v>
+        <v>14.74151234567901</v>
       </c>
       <c r="AH27" t="n">
-        <v>881618.364790882</v>
+        <v>984629.5341358997</v>
       </c>
     </row>
   </sheetData>
@@ -9424,28 +9424,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1514.338071258805</v>
+        <v>1645.430112374415</v>
       </c>
       <c r="AB2" t="n">
-        <v>2071.984156976938</v>
+        <v>2251.350071004</v>
       </c>
       <c r="AC2" t="n">
-        <v>1874.236897083087</v>
+        <v>2036.484380017047</v>
       </c>
       <c r="AD2" t="n">
-        <v>1514338.071258805</v>
+        <v>1645430.112374415</v>
       </c>
       <c r="AE2" t="n">
-        <v>2071984.156976938</v>
+        <v>2251350.071004</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.504203477847217e-07</v>
+        <v>1.472750310874227e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>25</v>
+        <v>24.64891975308642</v>
       </c>
       <c r="AH2" t="n">
-        <v>1874236.897083087</v>
+        <v>2036484.380017047</v>
       </c>
     </row>
     <row r="3">
@@ -9530,28 +9530,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>986.408748706617</v>
+        <v>1087.229086290647</v>
       </c>
       <c r="AB3" t="n">
-        <v>1349.647967263091</v>
+        <v>1487.594801024939</v>
       </c>
       <c r="AC3" t="n">
-        <v>1220.83945951032</v>
+        <v>1345.620841067534</v>
       </c>
       <c r="AD3" t="n">
-        <v>986408.7487066169</v>
+        <v>1087229.086290647</v>
       </c>
       <c r="AE3" t="n">
-        <v>1349647.967263091</v>
+        <v>1487594.801024939</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.129185236590919e-06</v>
+        <v>1.955512838510824e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.56095679012346</v>
       </c>
       <c r="AH3" t="n">
-        <v>1220839.45951032</v>
+        <v>1345620.841067534</v>
       </c>
     </row>
     <row r="4">
@@ -9636,28 +9636,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>870.2933410877839</v>
+        <v>951.0179733472162</v>
       </c>
       <c r="AB4" t="n">
-        <v>1190.773743908758</v>
+        <v>1301.224747085543</v>
       </c>
       <c r="AC4" t="n">
-        <v>1077.127969051552</v>
+        <v>1177.037683504101</v>
       </c>
       <c r="AD4" t="n">
-        <v>870293.3410877839</v>
+        <v>951017.9733472161</v>
       </c>
       <c r="AE4" t="n">
-        <v>1190773.743908758</v>
+        <v>1301224.747085543</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.232791676457109e-06</v>
+        <v>2.134937539388429e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.00231481481482</v>
       </c>
       <c r="AH4" t="n">
-        <v>1077127.969051552</v>
+        <v>1177037.683504101</v>
       </c>
     </row>
     <row r="5">
@@ -9742,28 +9742,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>809.7380882111573</v>
+        <v>890.3773796160179</v>
       </c>
       <c r="AB5" t="n">
-        <v>1107.919375413747</v>
+        <v>1218.253611468334</v>
       </c>
       <c r="AC5" t="n">
-        <v>1002.181105198867</v>
+        <v>1101.985196619478</v>
       </c>
       <c r="AD5" t="n">
-        <v>809738.0882111574</v>
+        <v>890377.3796160179</v>
       </c>
       <c r="AE5" t="n">
-        <v>1107919.375413747</v>
+        <v>1218253.611468334</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.288805436028184e-06</v>
+        <v>2.231941664508939e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.26157407407407</v>
       </c>
       <c r="AH5" t="n">
-        <v>1002181.105198867</v>
+        <v>1101985.196619478</v>
       </c>
     </row>
     <row r="6">
@@ -9848,28 +9848,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>768.3718918526577</v>
+        <v>849.0964346035387</v>
       </c>
       <c r="AB6" t="n">
-        <v>1051.320320608262</v>
+        <v>1161.771201315499</v>
       </c>
       <c r="AC6" t="n">
-        <v>950.9837847467464</v>
+        <v>1050.893388418069</v>
       </c>
       <c r="AD6" t="n">
-        <v>768371.8918526577</v>
+        <v>849096.4346035387</v>
       </c>
       <c r="AE6" t="n">
-        <v>1051320.320608262</v>
+        <v>1161771.201315499</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.324825923511815e-06</v>
+        <v>2.294321620818247e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.82175925925926</v>
       </c>
       <c r="AH6" t="n">
-        <v>950983.7847467464</v>
+        <v>1050893.388418069</v>
       </c>
     </row>
     <row r="7">
@@ -9954,28 +9954,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>748.075168693045</v>
+        <v>828.7997114439261</v>
       </c>
       <c r="AB7" t="n">
-        <v>1023.549448553051</v>
+        <v>1134.000329260287</v>
       </c>
       <c r="AC7" t="n">
-        <v>925.8633257438203</v>
+        <v>1025.772929415143</v>
       </c>
       <c r="AD7" t="n">
-        <v>748075.168693045</v>
+        <v>828799.7114439261</v>
       </c>
       <c r="AE7" t="n">
-        <v>1023549.448553051</v>
+        <v>1134000.329260287</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.347970309134781e-06</v>
+        <v>2.334402859713821e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.54783950617284</v>
       </c>
       <c r="AH7" t="n">
-        <v>925863.3257438203</v>
+        <v>1025772.929415143</v>
       </c>
     </row>
     <row r="8">
@@ -10060,28 +10060,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>733.0858570171508</v>
+        <v>813.6398075674398</v>
       </c>
       <c r="AB8" t="n">
-        <v>1003.040411036332</v>
+        <v>1113.257879968722</v>
       </c>
       <c r="AC8" t="n">
-        <v>907.3116419830824</v>
+        <v>1007.010110371754</v>
       </c>
       <c r="AD8" t="n">
-        <v>733085.8570171508</v>
+        <v>813639.8075674397</v>
       </c>
       <c r="AE8" t="n">
-        <v>1003040.411036332</v>
+        <v>1113257.879968722</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.363997524530967e-06</v>
+        <v>2.36215864721193e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.36651234567901</v>
       </c>
       <c r="AH8" t="n">
-        <v>907311.6419830824</v>
+        <v>1007010.110371754</v>
       </c>
     </row>
     <row r="9">
@@ -10166,28 +10166,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>720.3494926047621</v>
+        <v>800.9034431550509</v>
       </c>
       <c r="AB9" t="n">
-        <v>985.61395535856</v>
+        <v>1095.831424290949</v>
       </c>
       <c r="AC9" t="n">
-        <v>891.5483427770129</v>
+        <v>991.2468111656841</v>
       </c>
       <c r="AD9" t="n">
-        <v>720349.4926047621</v>
+        <v>800903.443155051</v>
       </c>
       <c r="AE9" t="n">
-        <v>985613.95535856</v>
+        <v>1095831.424290949</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.376873626391631e-06</v>
+        <v>2.384457364625665e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.22376543209877</v>
       </c>
       <c r="AH9" t="n">
-        <v>891548.3427770128</v>
+        <v>991246.8111656841</v>
       </c>
     </row>
     <row r="10">
@@ -10272,28 +10272,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>708.0200617966674</v>
+        <v>778.6541262122395</v>
       </c>
       <c r="AB10" t="n">
-        <v>968.7442841908265</v>
+        <v>1065.388927279207</v>
       </c>
       <c r="AC10" t="n">
-        <v>876.2886893487956</v>
+        <v>963.7097033424296</v>
       </c>
       <c r="AD10" t="n">
-        <v>708020.0617966674</v>
+        <v>778654.1262122395</v>
       </c>
       <c r="AE10" t="n">
-        <v>968744.2841908266</v>
+        <v>1065388.927279207</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.388228501028251e-06</v>
+        <v>2.404121634412461e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.10030864197531</v>
       </c>
       <c r="AH10" t="n">
-        <v>876288.6893487957</v>
+        <v>963709.7033424296</v>
       </c>
     </row>
     <row r="11">
@@ -10378,28 +10378,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>697.7058118743223</v>
+        <v>768.3398762898944</v>
       </c>
       <c r="AB11" t="n">
-        <v>954.6318724144822</v>
+        <v>1051.276515502863</v>
       </c>
       <c r="AC11" t="n">
-        <v>863.5231463454915</v>
+        <v>950.9441603391252</v>
       </c>
       <c r="AD11" t="n">
-        <v>697705.8118743224</v>
+        <v>768339.8762898943</v>
       </c>
       <c r="AE11" t="n">
-        <v>954631.8724144823</v>
+        <v>1051276.515502863</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.396921228022792e-06</v>
+        <v>2.419175620852113e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.00385802469136</v>
       </c>
       <c r="AH11" t="n">
-        <v>863523.1463454914</v>
+        <v>950944.1603391252</v>
       </c>
     </row>
     <row r="12">
@@ -10484,28 +10484,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>679.4810794617788</v>
+        <v>760.1202813580884</v>
       </c>
       <c r="AB12" t="n">
-        <v>929.6959895091909</v>
+        <v>1040.03010309423</v>
       </c>
       <c r="AC12" t="n">
-        <v>840.9671091069495</v>
+        <v>940.7710897463332</v>
       </c>
       <c r="AD12" t="n">
-        <v>679481.0794617787</v>
+        <v>760120.2813580884</v>
       </c>
       <c r="AE12" t="n">
-        <v>929695.9895091909</v>
+        <v>1040030.10309423</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.403277784637551e-06</v>
+        <v>2.430183848436108e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.93827160493827</v>
       </c>
       <c r="AH12" t="n">
-        <v>840967.1091069494</v>
+        <v>940771.0897463332</v>
       </c>
     </row>
     <row r="13">
@@ -10590,28 +10590,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>672.0740000880697</v>
+        <v>752.7132019843792</v>
       </c>
       <c r="AB13" t="n">
-        <v>919.5612967328029</v>
+        <v>1029.895410317842</v>
       </c>
       <c r="AC13" t="n">
-        <v>831.7996571850092</v>
+        <v>931.6036378243931</v>
       </c>
       <c r="AD13" t="n">
-        <v>672074.0000880697</v>
+        <v>752713.2019843792</v>
       </c>
       <c r="AE13" t="n">
-        <v>919561.2967328029</v>
+        <v>1029895.410317842</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.407569818591105e-06</v>
+        <v>2.437616754240687e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.89197530864198</v>
       </c>
       <c r="AH13" t="n">
-        <v>831799.6571850092</v>
+        <v>931603.6378243931</v>
       </c>
     </row>
     <row r="14">
@@ -10696,28 +10696,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>665.2034645184501</v>
+        <v>745.8426664147596</v>
       </c>
       <c r="AB14" t="n">
-        <v>910.1607268598121</v>
+        <v>1020.494840444851</v>
       </c>
       <c r="AC14" t="n">
-        <v>823.2962645069142</v>
+        <v>923.1002451462979</v>
       </c>
       <c r="AD14" t="n">
-        <v>665203.4645184501</v>
+        <v>745842.6664147596</v>
       </c>
       <c r="AE14" t="n">
-        <v>910160.7268598122</v>
+        <v>1020494.840444851</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.411264227563785e-06</v>
+        <v>2.444014698477539e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.8533950617284</v>
       </c>
       <c r="AH14" t="n">
-        <v>823296.2645069142</v>
+        <v>923100.2451462978</v>
       </c>
     </row>
     <row r="15">
@@ -10802,28 +10802,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>656.8778759647394</v>
+        <v>737.5170778610487</v>
       </c>
       <c r="AB15" t="n">
-        <v>898.7692893015808</v>
+        <v>1009.10340288662</v>
       </c>
       <c r="AC15" t="n">
-        <v>812.9920097612572</v>
+        <v>912.7959904006411</v>
       </c>
       <c r="AD15" t="n">
-        <v>656877.8759647394</v>
+        <v>737517.0778610487</v>
       </c>
       <c r="AE15" t="n">
-        <v>898769.2893015807</v>
+        <v>1009103.40288662</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.416534193304226e-06</v>
+        <v>2.453141177756578e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.79552469135803</v>
       </c>
       <c r="AH15" t="n">
-        <v>812992.0097612572</v>
+        <v>912795.9904006411</v>
       </c>
     </row>
     <row r="16">
@@ -10908,28 +10908,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>648.8702245560855</v>
+        <v>729.5094264523949</v>
       </c>
       <c r="AB16" t="n">
-        <v>887.8128673716133</v>
+        <v>998.1469809566521</v>
       </c>
       <c r="AC16" t="n">
-        <v>803.0812533628512</v>
+        <v>902.8852340022348</v>
       </c>
       <c r="AD16" t="n">
-        <v>648870.2245560855</v>
+        <v>729509.4264523949</v>
       </c>
       <c r="AE16" t="n">
-        <v>887812.8673716133</v>
+        <v>998146.9809566521</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.42109787497636e-06</v>
+        <v>2.461044520637396e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14.74922839506173</v>
       </c>
       <c r="AH16" t="n">
-        <v>803081.2533628511</v>
+        <v>902885.2340022349</v>
       </c>
     </row>
     <row r="17">
@@ -11014,28 +11014,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>643.5065272056941</v>
+        <v>724.1457291020035</v>
       </c>
       <c r="AB17" t="n">
-        <v>880.474020027181</v>
+        <v>990.8081336122199</v>
       </c>
       <c r="AC17" t="n">
-        <v>796.4428153088345</v>
+        <v>896.2467959482183</v>
       </c>
       <c r="AD17" t="n">
-        <v>643506.527205694</v>
+        <v>724145.7291020035</v>
       </c>
       <c r="AE17" t="n">
-        <v>880474.020027181</v>
+        <v>990808.1336122198</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.423271056724996e-06</v>
+        <v>2.464808017247308e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>14.72608024691358</v>
       </c>
       <c r="AH17" t="n">
-        <v>796442.8153088345</v>
+        <v>896246.7959482183</v>
       </c>
     </row>
     <row r="18">
@@ -11120,28 +11120,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>639.0442960462451</v>
+        <v>719.6834979425546</v>
       </c>
       <c r="AB18" t="n">
-        <v>874.3685984950779</v>
+        <v>984.7027120801167</v>
       </c>
       <c r="AC18" t="n">
-        <v>790.9200866387426</v>
+        <v>890.7240672781262</v>
       </c>
       <c r="AD18" t="n">
-        <v>639044.2960462451</v>
+        <v>719683.4979425546</v>
       </c>
       <c r="AE18" t="n">
-        <v>874368.5984950779</v>
+        <v>984702.7120801167</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.425281249842483e-06</v>
+        <v>2.468289251611478e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>14.70679012345679</v>
       </c>
       <c r="AH18" t="n">
-        <v>790920.0866387426</v>
+        <v>890724.0672781263</v>
       </c>
     </row>
     <row r="19">
@@ -11226,28 +11226,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>640.7654533587382</v>
+        <v>721.4046552550476</v>
       </c>
       <c r="AB19" t="n">
-        <v>876.7235618621326</v>
+        <v>987.0576754471714</v>
       </c>
       <c r="AC19" t="n">
-        <v>793.0502956072571</v>
+        <v>892.8542762466409</v>
       </c>
       <c r="AD19" t="n">
-        <v>640765.4533587382</v>
+        <v>721404.6552550476</v>
       </c>
       <c r="AE19" t="n">
-        <v>876723.5618621325</v>
+        <v>987057.6754471714</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.424737954405324e-06</v>
+        <v>2.467348377459e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>14.71064814814815</v>
       </c>
       <c r="AH19" t="n">
-        <v>793050.2956072572</v>
+        <v>892854.2762466409</v>
       </c>
     </row>
   </sheetData>
@@ -11523,28 +11523,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>714.1598902910813</v>
+        <v>796.1129294594991</v>
       </c>
       <c r="AB2" t="n">
-        <v>977.1450684069999</v>
+        <v>1089.276832110147</v>
       </c>
       <c r="AC2" t="n">
-        <v>883.8877145099522</v>
+        <v>985.3177800631897</v>
       </c>
       <c r="AD2" t="n">
-        <v>714159.8902910813</v>
+        <v>796112.9294594991</v>
       </c>
       <c r="AE2" t="n">
-        <v>977145.0684069999</v>
+        <v>1089276.832110147</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.270251658674645e-06</v>
+        <v>2.403589483310611e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>19</v>
+        <v>18.41435185185185</v>
       </c>
       <c r="AH2" t="n">
-        <v>883887.7145099521</v>
+        <v>985317.7800631897</v>
       </c>
     </row>
     <row r="3">
@@ -11629,28 +11629,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>571.4357958238643</v>
+        <v>644.2734693795666</v>
       </c>
       <c r="AB3" t="n">
-        <v>781.8636658142933</v>
+        <v>881.5233841445743</v>
       </c>
       <c r="AC3" t="n">
-        <v>707.2436949015236</v>
+        <v>797.3920295876557</v>
       </c>
       <c r="AD3" t="n">
-        <v>571435.7958238643</v>
+        <v>644273.4693795666</v>
       </c>
       <c r="AE3" t="n">
-        <v>781863.6658142933</v>
+        <v>881523.3841445743</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.460428695531532e-06</v>
+        <v>2.763445361187067e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.01466049382716</v>
       </c>
       <c r="AH3" t="n">
-        <v>707243.6949015235</v>
+        <v>797392.0295876557</v>
       </c>
     </row>
     <row r="4">
@@ -11735,28 +11735,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>520.0638169492699</v>
+        <v>592.8161496504006</v>
       </c>
       <c r="AB4" t="n">
-        <v>711.574257946318</v>
+        <v>811.1172091544009</v>
       </c>
       <c r="AC4" t="n">
-        <v>643.6626094686641</v>
+        <v>733.7053211228573</v>
       </c>
       <c r="AD4" t="n">
-        <v>520063.81694927</v>
+        <v>592816.1496504006</v>
       </c>
       <c r="AE4" t="n">
-        <v>711574.257946318</v>
+        <v>811117.209154401</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.530146130145948e-06</v>
+        <v>2.895365749952743e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.28549382716049</v>
       </c>
       <c r="AH4" t="n">
-        <v>643662.609468664</v>
+        <v>733705.3211228573</v>
       </c>
     </row>
     <row r="5">
@@ -11841,28 +11841,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>485.989005802734</v>
+        <v>558.8265898498853</v>
       </c>
       <c r="AB5" t="n">
-        <v>664.9515980610556</v>
+        <v>764.6111939217882</v>
       </c>
       <c r="AC5" t="n">
-        <v>601.4895508075371</v>
+        <v>691.6377747124426</v>
       </c>
       <c r="AD5" t="n">
-        <v>485989.005802734</v>
+        <v>558826.5898498853</v>
       </c>
       <c r="AE5" t="n">
-        <v>664951.5980610556</v>
+        <v>764611.1939217881</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.56373174647324e-06</v>
+        <v>2.958916963323338e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.95756172839506</v>
       </c>
       <c r="AH5" t="n">
-        <v>601489.550807537</v>
+        <v>691637.7747124425</v>
       </c>
     </row>
     <row r="6">
@@ -11947,28 +11947,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>471.2612576271179</v>
+        <v>544.0988416742691</v>
       </c>
       <c r="AB6" t="n">
-        <v>644.8004432647847</v>
+        <v>744.460039125517</v>
       </c>
       <c r="AC6" t="n">
-        <v>583.2615939426988</v>
+        <v>673.4098178476041</v>
       </c>
       <c r="AD6" t="n">
-        <v>471261.2576271179</v>
+        <v>544098.8416742692</v>
       </c>
       <c r="AE6" t="n">
-        <v>644800.4432647846</v>
+        <v>744460.039125517</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.579857692218835e-06</v>
+        <v>2.989430722811746e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.80324074074074</v>
       </c>
       <c r="AH6" t="n">
-        <v>583261.5939426988</v>
+        <v>673409.8178476042</v>
       </c>
     </row>
     <row r="7">
@@ -12053,28 +12053,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>473.7126135487858</v>
+        <v>546.5501975959372</v>
       </c>
       <c r="AB7" t="n">
-        <v>648.1544965830014</v>
+        <v>747.8140924437339</v>
       </c>
       <c r="AC7" t="n">
-        <v>586.2955411196685</v>
+        <v>676.4437650245738</v>
       </c>
       <c r="AD7" t="n">
-        <v>473712.6135487859</v>
+        <v>546550.1975959372</v>
       </c>
       <c r="AE7" t="n">
-        <v>648154.4965830015</v>
+        <v>747814.0924437339</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.579130205944598e-06</v>
+        <v>2.988054162233322e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.81095679012346</v>
       </c>
       <c r="AH7" t="n">
-        <v>586295.5411196685</v>
+        <v>676443.7650245739</v>
       </c>
     </row>
   </sheetData>
@@ -12350,28 +12350,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>949.7599033305871</v>
+        <v>1044.640959774291</v>
       </c>
       <c r="AB2" t="n">
-        <v>1299.503400186659</v>
+        <v>1429.323847469723</v>
       </c>
       <c r="AC2" t="n">
-        <v>1175.480619537321</v>
+        <v>1292.911185535831</v>
       </c>
       <c r="AD2" t="n">
-        <v>949759.9033305871</v>
+        <v>1044640.959774291</v>
       </c>
       <c r="AE2" t="n">
-        <v>1299503.400186659</v>
+        <v>1429323.847469723</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.103275399160107e-06</v>
+        <v>2.009928173677542e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.28163580246914</v>
       </c>
       <c r="AH2" t="n">
-        <v>1175480.619537321</v>
+        <v>1292911.185535831</v>
       </c>
     </row>
     <row r="3">
@@ -12456,28 +12456,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>704.0220359175652</v>
+        <v>789.4063720737458</v>
       </c>
       <c r="AB3" t="n">
-        <v>963.2740088025856</v>
+        <v>1080.100624422529</v>
       </c>
       <c r="AC3" t="n">
-        <v>871.3404893660286</v>
+        <v>977.0173367583895</v>
       </c>
       <c r="AD3" t="n">
-        <v>704022.0359175652</v>
+        <v>789406.3720737458</v>
       </c>
       <c r="AE3" t="n">
-        <v>963274.0088025857</v>
+        <v>1080100.624422529</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.33027534198262e-06</v>
+        <v>2.4234727708375e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.82098765432099</v>
       </c>
       <c r="AH3" t="n">
-        <v>871340.4893660286</v>
+        <v>977017.3367583896</v>
       </c>
     </row>
     <row r="4">
@@ -12562,28 +12562,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>637.4220328510677</v>
+        <v>722.7210281526766</v>
       </c>
       <c r="AB4" t="n">
-        <v>872.1489464222351</v>
+        <v>988.8587949199809</v>
       </c>
       <c r="AC4" t="n">
-        <v>788.9122750444304</v>
+        <v>894.4834994048526</v>
       </c>
       <c r="AD4" t="n">
-        <v>637422.0328510677</v>
+        <v>722721.0281526765</v>
       </c>
       <c r="AE4" t="n">
-        <v>872148.9464222351</v>
+        <v>988858.7949199809</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.411181044649305e-06</v>
+        <v>2.570865390418017e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.85648148148148</v>
       </c>
       <c r="AH4" t="n">
-        <v>788912.2750444304</v>
+        <v>894483.4994048526</v>
       </c>
     </row>
     <row r="5">
@@ -12668,28 +12668,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>607.0205633211701</v>
+        <v>682.8230173523576</v>
       </c>
       <c r="AB5" t="n">
-        <v>830.552314593252</v>
+        <v>934.268576366975</v>
       </c>
       <c r="AC5" t="n">
-        <v>751.2855673759661</v>
+        <v>845.1032946926925</v>
       </c>
       <c r="AD5" t="n">
-        <v>607020.5633211702</v>
+        <v>682823.0173523576</v>
       </c>
       <c r="AE5" t="n">
-        <v>830552.314593252</v>
+        <v>934268.576366975</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.453228811268191e-06</v>
+        <v>2.647467289483161e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.39737654320988</v>
       </c>
       <c r="AH5" t="n">
-        <v>751285.5673759661</v>
+        <v>845103.2946926926</v>
       </c>
     </row>
     <row r="6">
@@ -12774,28 +12774,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>585.9476065285209</v>
+        <v>652.424111489879</v>
       </c>
       <c r="AB6" t="n">
-        <v>801.7193654363085</v>
+        <v>892.6754522608555</v>
       </c>
       <c r="AC6" t="n">
-        <v>725.2043944192631</v>
+        <v>807.479759974945</v>
       </c>
       <c r="AD6" t="n">
-        <v>585947.6065285208</v>
+        <v>652424.111489879</v>
       </c>
       <c r="AE6" t="n">
-        <v>801719.3654363086</v>
+        <v>892675.4522608556</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.480313372662701e-06</v>
+        <v>2.696809478260294e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.11574074074074</v>
       </c>
       <c r="AH6" t="n">
-        <v>725204.394419263</v>
+        <v>807479.759974945</v>
       </c>
     </row>
     <row r="7">
@@ -12880,28 +12880,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>559.4666107516372</v>
+        <v>635.3543161288452</v>
       </c>
       <c r="AB7" t="n">
-        <v>765.4868987552943</v>
+        <v>869.3198051816665</v>
       </c>
       <c r="AC7" t="n">
-        <v>692.4299035056983</v>
+        <v>786.3531430731372</v>
       </c>
       <c r="AD7" t="n">
-        <v>559466.6107516371</v>
+        <v>635354.3161288452</v>
       </c>
       <c r="AE7" t="n">
-        <v>765486.8987552943</v>
+        <v>869319.8051816665</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.498408411538691e-06</v>
+        <v>2.729774709306259e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.93441358024691</v>
       </c>
       <c r="AH7" t="n">
-        <v>692429.9035056983</v>
+        <v>786353.1430731372</v>
       </c>
     </row>
     <row r="8">
@@ -12986,28 +12986,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>546.1913072307278</v>
+        <v>622.0790126079359</v>
       </c>
       <c r="AB8" t="n">
-        <v>747.3230428129289</v>
+        <v>851.1559492393012</v>
       </c>
       <c r="AC8" t="n">
-        <v>675.9995804813404</v>
+        <v>769.9228200487793</v>
       </c>
       <c r="AD8" t="n">
-        <v>546191.3072307279</v>
+        <v>622079.0126079358</v>
       </c>
       <c r="AE8" t="n">
-        <v>747323.0428129289</v>
+        <v>851155.9492393013</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.509659813916711e-06</v>
+        <v>2.750272320918173e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.82253086419753</v>
       </c>
       <c r="AH8" t="n">
-        <v>675999.5804813404</v>
+        <v>769922.8200487792</v>
       </c>
     </row>
     <row r="9">
@@ -13092,28 +13092,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>533.4265988459035</v>
+        <v>609.3143042231115</v>
       </c>
       <c r="AB9" t="n">
-        <v>729.8578056616228</v>
+        <v>833.6907120879952</v>
       </c>
       <c r="AC9" t="n">
-        <v>660.2012010511406</v>
+        <v>754.1244406185795</v>
       </c>
       <c r="AD9" t="n">
-        <v>533426.5988459035</v>
+        <v>609314.3042231116</v>
       </c>
       <c r="AE9" t="n">
-        <v>729857.8056616228</v>
+        <v>833690.7120879951</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.519925268663666e-06</v>
+        <v>2.768973750069249e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.72222222222222</v>
       </c>
       <c r="AH9" t="n">
-        <v>660201.2010511407</v>
+        <v>754124.4406185795</v>
       </c>
     </row>
     <row r="10">
@@ -13198,28 +13198,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>532.796775204367</v>
+        <v>608.684480581575</v>
       </c>
       <c r="AB10" t="n">
-        <v>728.9960531694144</v>
+        <v>832.8289595957868</v>
       </c>
       <c r="AC10" t="n">
-        <v>659.4216930073115</v>
+        <v>753.3449325747504</v>
       </c>
       <c r="AD10" t="n">
-        <v>532796.775204367</v>
+        <v>608684.4805815751</v>
       </c>
       <c r="AE10" t="n">
-        <v>728996.0531694144</v>
+        <v>832828.9595957869</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.52091121629473e-06</v>
+        <v>2.770769932530087e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.71064814814815</v>
       </c>
       <c r="AH10" t="n">
-        <v>659421.6930073116</v>
+        <v>753344.9325747504</v>
       </c>
     </row>
   </sheetData>
@@ -13495,28 +13495,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>564.0701145788411</v>
+        <v>643.1233720818548</v>
       </c>
       <c r="AB2" t="n">
-        <v>771.7856157839301</v>
+        <v>879.9497702831329</v>
       </c>
       <c r="AC2" t="n">
-        <v>698.1274798214259</v>
+        <v>795.9685992245693</v>
       </c>
       <c r="AD2" t="n">
-        <v>564070.114578841</v>
+        <v>643123.3720818547</v>
       </c>
       <c r="AE2" t="n">
-        <v>771785.6157839301</v>
+        <v>879949.7702831329</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.411063248211119e-06</v>
+        <v>2.765229321255309e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.21450617283951</v>
       </c>
       <c r="AH2" t="n">
-        <v>698127.479821426</v>
+        <v>795968.5992245693</v>
       </c>
     </row>
     <row r="3">
@@ -13601,28 +13601,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>461.7981302772729</v>
+        <v>532.0487378132193</v>
       </c>
       <c r="AB3" t="n">
-        <v>631.8525749410127</v>
+        <v>727.9725554097657</v>
       </c>
       <c r="AC3" t="n">
-        <v>571.5494519993002</v>
+        <v>658.4958764373555</v>
       </c>
       <c r="AD3" t="n">
-        <v>461798.130277273</v>
+        <v>532048.7378132193</v>
       </c>
       <c r="AE3" t="n">
-        <v>631852.5749410127</v>
+        <v>727972.5554097657</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.574641059056351e-06</v>
+        <v>3.085789125664808e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.42438271604938</v>
       </c>
       <c r="AH3" t="n">
-        <v>571549.4519993003</v>
+        <v>658495.8764373555</v>
       </c>
     </row>
     <row r="4">
@@ -13707,28 +13707,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>422.7598636117569</v>
+        <v>493.0957224937238</v>
       </c>
       <c r="AB4" t="n">
-        <v>578.4386962424785</v>
+        <v>674.6753213638808</v>
       </c>
       <c r="AC4" t="n">
-        <v>523.2333189169045</v>
+        <v>610.2852556056719</v>
       </c>
       <c r="AD4" t="n">
-        <v>422759.8636117569</v>
+        <v>493095.7224937238</v>
       </c>
       <c r="AE4" t="n">
-        <v>578438.6962424784</v>
+        <v>674675.3213638808</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.622429957605824e-06</v>
+        <v>3.179439969216312e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>15</v>
+        <v>14.9729938271605</v>
       </c>
       <c r="AH4" t="n">
-        <v>523233.3189169046</v>
+        <v>610285.2556056719</v>
       </c>
     </row>
     <row r="5">
@@ -13813,28 +13813,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>425.3203613323045</v>
+        <v>495.6562202142714</v>
       </c>
       <c r="AB5" t="n">
-        <v>581.9420821849187</v>
+        <v>678.1787073063209</v>
       </c>
       <c r="AC5" t="n">
-        <v>526.4023466220312</v>
+        <v>613.4542833107987</v>
       </c>
       <c r="AD5" t="n">
-        <v>425320.3613323045</v>
+        <v>495656.2202142714</v>
       </c>
       <c r="AE5" t="n">
-        <v>581942.0821849187</v>
+        <v>678178.7073063209</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.62280773545997e-06</v>
+        <v>3.180180292090238e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.96913580246914</v>
       </c>
       <c r="AH5" t="n">
-        <v>526402.3466220313</v>
+        <v>613454.2833107987</v>
       </c>
     </row>
   </sheetData>
@@ -14110,28 +14110,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1624.913391500565</v>
+        <v>1757.026983670182</v>
       </c>
       <c r="AB2" t="n">
-        <v>2223.278188370554</v>
+        <v>2404.041833617359</v>
       </c>
       <c r="AC2" t="n">
-        <v>2011.091638463003</v>
+        <v>2174.603455110823</v>
       </c>
       <c r="AD2" t="n">
-        <v>1624913.391500565</v>
+        <v>1757026.983670182</v>
       </c>
       <c r="AE2" t="n">
-        <v>2223278.188370554</v>
+        <v>2404041.833617359</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.166141112309906e-07</v>
+        <v>1.404969231980182e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>26</v>
+        <v>25.43595679012346</v>
       </c>
       <c r="AH2" t="n">
-        <v>2011091.638463003</v>
+        <v>2174603.455110823</v>
       </c>
     </row>
     <row r="3">
@@ -14216,28 +14216,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1035.579330386048</v>
+        <v>1137.251054431637</v>
       </c>
       <c r="AB3" t="n">
-        <v>1416.925326369854</v>
+        <v>1556.037064648928</v>
       </c>
       <c r="AC3" t="n">
-        <v>1281.6959618883</v>
+        <v>1407.53107111057</v>
       </c>
       <c r="AD3" t="n">
-        <v>1035579.330386048</v>
+        <v>1137251.054431637</v>
       </c>
       <c r="AE3" t="n">
-        <v>1416925.326369854</v>
+        <v>1556037.064648928</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.098312867079909e-06</v>
+        <v>1.889626647535026e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.91203703703704</v>
       </c>
       <c r="AH3" t="n">
-        <v>1281695.9618883</v>
+        <v>1407531.07111057</v>
       </c>
     </row>
     <row r="4">
@@ -14322,28 +14322,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>904.822798382883</v>
+        <v>996.2335645924356</v>
       </c>
       <c r="AB4" t="n">
-        <v>1238.018470712057</v>
+        <v>1363.090713798354</v>
       </c>
       <c r="AC4" t="n">
-        <v>1119.863725437134</v>
+        <v>1232.999249183271</v>
       </c>
       <c r="AD4" t="n">
-        <v>904822.798382883</v>
+        <v>996233.5645924356</v>
       </c>
       <c r="AE4" t="n">
-        <v>1238018.470712057</v>
+        <v>1363090.713798354</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.208580269981015e-06</v>
+        <v>2.079339642002977e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.1875</v>
       </c>
       <c r="AH4" t="n">
-        <v>1119863.725437135</v>
+        <v>1232999.249183271</v>
       </c>
     </row>
     <row r="5">
@@ -14428,28 +14428,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>840.6001297292352</v>
+        <v>921.9205303033432</v>
       </c>
       <c r="AB5" t="n">
-        <v>1150.14618215596</v>
+        <v>1261.412341824327</v>
       </c>
       <c r="AC5" t="n">
-        <v>1040.377844771299</v>
+        <v>1141.024918323954</v>
       </c>
       <c r="AD5" t="n">
-        <v>840600.1297292352</v>
+        <v>921920.5303033432</v>
       </c>
       <c r="AE5" t="n">
-        <v>1150146.18215596</v>
+        <v>1261412.341824327</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.266029156160448e-06</v>
+        <v>2.178179371054395e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.40817901234568</v>
       </c>
       <c r="AH5" t="n">
-        <v>1040377.844771299</v>
+        <v>1141024.918323954</v>
       </c>
     </row>
     <row r="6">
@@ -14534,28 +14534,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>797.9469146934051</v>
+        <v>889.3575913944065</v>
       </c>
       <c r="AB6" t="n">
-        <v>1091.786171616895</v>
+        <v>1216.858292233644</v>
       </c>
       <c r="AC6" t="n">
-        <v>987.5876317292941</v>
+        <v>1100.723044694204</v>
       </c>
       <c r="AD6" t="n">
-        <v>797946.9146934052</v>
+        <v>889357.5913944065</v>
       </c>
       <c r="AE6" t="n">
-        <v>1091786.171616895</v>
+        <v>1216858.292233644</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.302479855263987e-06</v>
+        <v>2.240892113854591e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.94907407407408</v>
       </c>
       <c r="AH6" t="n">
-        <v>987587.6317292941</v>
+        <v>1100723.044694204</v>
       </c>
     </row>
     <row r="7">
@@ -14640,28 +14640,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>775.3729842265318</v>
+        <v>856.7786361466605</v>
       </c>
       <c r="AB7" t="n">
-        <v>1060.899524060594</v>
+        <v>1172.282328381611</v>
       </c>
       <c r="AC7" t="n">
-        <v>959.6487624660838</v>
+        <v>1060.40134826945</v>
       </c>
       <c r="AD7" t="n">
-        <v>775372.9842265318</v>
+        <v>856778.6361466604</v>
       </c>
       <c r="AE7" t="n">
-        <v>1060899.524060594</v>
+        <v>1172282.328381611</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.327462313733769e-06</v>
+        <v>2.283873964163737e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.64814814814815</v>
       </c>
       <c r="AH7" t="n">
-        <v>959648.7624660837</v>
+        <v>1060401.34826945</v>
       </c>
     </row>
     <row r="8">
@@ -14746,28 +14746,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>759.5812362865498</v>
+        <v>840.8162960060863</v>
       </c>
       <c r="AB8" t="n">
-        <v>1039.292557846361</v>
+        <v>1150.441950392531</v>
       </c>
       <c r="AC8" t="n">
-        <v>940.1039347817696</v>
+        <v>1040.645385302485</v>
       </c>
       <c r="AD8" t="n">
-        <v>759581.2362865498</v>
+        <v>840816.2960060863</v>
       </c>
       <c r="AE8" t="n">
-        <v>1039292.55784636</v>
+        <v>1150441.950392531</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.344260863394484e-06</v>
+        <v>2.312775553164714e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.45138888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>940103.9347817695</v>
+        <v>1040645.385302485</v>
       </c>
     </row>
     <row r="9">
@@ -14852,28 +14852,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>747.14740897464</v>
+        <v>828.3824686941764</v>
       </c>
       <c r="AB9" t="n">
-        <v>1022.280046776459</v>
+        <v>1133.429439322629</v>
       </c>
       <c r="AC9" t="n">
-        <v>924.7150738911698</v>
+        <v>1025.256524411885</v>
       </c>
       <c r="AD9" t="n">
-        <v>747147.4089746401</v>
+        <v>828382.4686941764</v>
       </c>
       <c r="AE9" t="n">
-        <v>1022280.046776459</v>
+        <v>1133429.439322629</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.35664440961873e-06</v>
+        <v>2.334081211723126e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.3125</v>
       </c>
       <c r="AH9" t="n">
-        <v>924715.0738911699</v>
+        <v>1025256.524411886</v>
       </c>
     </row>
     <row r="10">
@@ -14958,28 +14958,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>735.9525063282147</v>
+        <v>817.1875660477513</v>
       </c>
       <c r="AB10" t="n">
-        <v>1006.962687091372</v>
+        <v>1118.112079637542</v>
       </c>
       <c r="AC10" t="n">
-        <v>910.8595815163778</v>
+        <v>1011.401032037094</v>
       </c>
       <c r="AD10" t="n">
-        <v>735952.5063282147</v>
+        <v>817187.5660477512</v>
       </c>
       <c r="AE10" t="n">
-        <v>1006962.687091372</v>
+        <v>1118112.079637542</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.367089661651354e-06</v>
+        <v>2.352052071550657e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.1929012345679</v>
       </c>
       <c r="AH10" t="n">
-        <v>910859.5815163779</v>
+        <v>1011401.032037094</v>
       </c>
     </row>
     <row r="11">
@@ -15064,28 +15064,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>725.3123011037515</v>
+        <v>796.5423360424148</v>
       </c>
       <c r="AB11" t="n">
-        <v>992.4042888905356</v>
+        <v>1089.864365140974</v>
       </c>
       <c r="AC11" t="n">
-        <v>897.6906164069895</v>
+        <v>985.8492397661622</v>
       </c>
       <c r="AD11" t="n">
-        <v>725312.3011037514</v>
+        <v>796542.3360424149</v>
       </c>
       <c r="AE11" t="n">
-        <v>992404.2888905356</v>
+        <v>1089864.365140974</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.376781132609459e-06</v>
+        <v>2.368726065205067e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.08873456790123</v>
       </c>
       <c r="AH11" t="n">
-        <v>897690.6164069895</v>
+        <v>985849.2397661622</v>
       </c>
     </row>
     <row r="12">
@@ -15170,28 +15170,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>717.4511279176571</v>
+        <v>788.6811628563206</v>
       </c>
       <c r="AB12" t="n">
-        <v>981.6482849268372</v>
+        <v>1079.108361177276</v>
       </c>
       <c r="AC12" t="n">
-        <v>887.9611503654402</v>
+        <v>976.1197737246127</v>
       </c>
       <c r="AD12" t="n">
-        <v>717451.1279176571</v>
+        <v>788681.1628563206</v>
       </c>
       <c r="AE12" t="n">
-        <v>981648.2849268372</v>
+        <v>1079108.361177276</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.382972905721581e-06</v>
+        <v>2.379378894484273e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.01929012345679</v>
       </c>
       <c r="AH12" t="n">
-        <v>887961.1503654402</v>
+        <v>976119.7737246128</v>
       </c>
     </row>
     <row r="13">
@@ -15276,28 +15276,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>698.7446406999181</v>
+        <v>780.0649517654754</v>
       </c>
       <c r="AB13" t="n">
-        <v>956.0532438435557</v>
+        <v>1067.319281042375</v>
       </c>
       <c r="AC13" t="n">
-        <v>864.8088640802813</v>
+        <v>965.4558268517093</v>
       </c>
       <c r="AD13" t="n">
-        <v>698744.6406999181</v>
+        <v>780064.9517654753</v>
       </c>
       <c r="AE13" t="n">
-        <v>956053.2438435557</v>
+        <v>1067319.281042375</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.389703093886932e-06</v>
+        <v>2.390958056744279e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.94598765432099</v>
       </c>
       <c r="AH13" t="n">
-        <v>864808.8640802813</v>
+        <v>965455.8268517093</v>
       </c>
     </row>
     <row r="14">
@@ -15382,28 +15382,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>691.669725789526</v>
+        <v>772.9900368550831</v>
       </c>
       <c r="AB14" t="n">
-        <v>946.3730331399397</v>
+        <v>1057.639070338759</v>
       </c>
       <c r="AC14" t="n">
-        <v>856.0525190999573</v>
+        <v>956.6994818713854</v>
       </c>
       <c r="AD14" t="n">
-        <v>691669.725789526</v>
+        <v>772990.0368550831</v>
       </c>
       <c r="AE14" t="n">
-        <v>946373.0331399397</v>
+        <v>1057639.070338759</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.393741206786143e-06</v>
+        <v>2.397905554100284e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.90354938271605</v>
       </c>
       <c r="AH14" t="n">
-        <v>856052.5190999573</v>
+        <v>956699.4818713854</v>
       </c>
     </row>
     <row r="15">
@@ -15488,28 +15488,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>683.8661705602873</v>
+        <v>765.1864816258444</v>
       </c>
       <c r="AB15" t="n">
-        <v>935.695864606736</v>
+        <v>1046.961901805555</v>
       </c>
       <c r="AC15" t="n">
-        <v>846.3943645460624</v>
+        <v>947.0413273174905</v>
       </c>
       <c r="AD15" t="n">
-        <v>683866.1705602873</v>
+        <v>765186.4816258444</v>
       </c>
       <c r="AE15" t="n">
-        <v>935695.864606736</v>
+        <v>1046961.901805555</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.398909991297132e-06</v>
+        <v>2.406798350715969e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.84953703703704</v>
       </c>
       <c r="AH15" t="n">
-        <v>846394.3645460624</v>
+        <v>947041.3273174905</v>
       </c>
     </row>
     <row r="16">
@@ -15594,28 +15594,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>675.689406487782</v>
+        <v>757.0097175533391</v>
       </c>
       <c r="AB16" t="n">
-        <v>924.5080552693627</v>
+        <v>1035.774092468182</v>
       </c>
       <c r="AC16" t="n">
-        <v>836.2743040296588</v>
+        <v>936.921266801087</v>
       </c>
       <c r="AD16" t="n">
-        <v>675689.406487782</v>
+        <v>757009.7175533391</v>
       </c>
       <c r="AE16" t="n">
-        <v>924508.0552693626</v>
+        <v>1035774.092468182</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.403648043765539e-06</v>
+        <v>2.414950080947014e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14.79938271604938</v>
       </c>
       <c r="AH16" t="n">
-        <v>836274.3040296588</v>
+        <v>936921.266801087</v>
       </c>
     </row>
     <row r="17">
@@ -15700,28 +15700,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>670.302767369181</v>
+        <v>751.623078434738</v>
       </c>
       <c r="AB17" t="n">
-        <v>917.1378179855466</v>
+        <v>1028.403855184366</v>
       </c>
       <c r="AC17" t="n">
-        <v>829.6074718480173</v>
+        <v>930.2544346194453</v>
       </c>
       <c r="AD17" t="n">
-        <v>670302.7673691809</v>
+        <v>751623.078434738</v>
       </c>
       <c r="AE17" t="n">
-        <v>917137.8179855465</v>
+        <v>1028403.855184366</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.405424813441192e-06</v>
+        <v>2.418006979783655e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>14.78009259259259</v>
       </c>
       <c r="AH17" t="n">
-        <v>829607.4718480173</v>
+        <v>930254.4346194454</v>
       </c>
     </row>
     <row r="18">
@@ -15806,28 +15806,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>664.2141845933672</v>
+        <v>745.5344956589244</v>
       </c>
       <c r="AB18" t="n">
-        <v>908.8071504223637</v>
+        <v>1020.073187621183</v>
       </c>
       <c r="AC18" t="n">
-        <v>822.0718715048994</v>
+        <v>922.7188342763274</v>
       </c>
       <c r="AD18" t="n">
-        <v>664214.1845933673</v>
+        <v>745534.4956589243</v>
       </c>
       <c r="AE18" t="n">
-        <v>908807.1504223638</v>
+        <v>1020073.187621183</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.407201583116844e-06</v>
+        <v>2.421063878620297e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>14.7608024691358</v>
       </c>
       <c r="AH18" t="n">
-        <v>822071.8715048993</v>
+        <v>922718.8342763274</v>
       </c>
     </row>
     <row r="19">
@@ -15912,28 +15912,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>656.8372236486135</v>
+        <v>738.1575347141707</v>
       </c>
       <c r="AB19" t="n">
-        <v>898.713667009204</v>
+        <v>1009.979704208023</v>
       </c>
       <c r="AC19" t="n">
-        <v>812.9416959823984</v>
+        <v>913.5886587538265</v>
       </c>
       <c r="AD19" t="n">
-        <v>656837.2236486136</v>
+        <v>738157.5347141706</v>
       </c>
       <c r="AE19" t="n">
-        <v>898713.6670092039</v>
+        <v>1009979.704208023</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.409732133867016e-06</v>
+        <v>2.42541764363006e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>14.7337962962963</v>
       </c>
       <c r="AH19" t="n">
-        <v>812941.6959823985</v>
+        <v>913588.6587538265</v>
       </c>
     </row>
     <row r="20">
@@ -16018,28 +16018,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>656.8365938085171</v>
+        <v>738.156904874074</v>
       </c>
       <c r="AB20" t="n">
-        <v>898.7128052341973</v>
+        <v>1009.978842433017</v>
       </c>
       <c r="AC20" t="n">
-        <v>812.9409164539891</v>
+        <v>913.5878792254171</v>
       </c>
       <c r="AD20" t="n">
-        <v>656836.5938085171</v>
+        <v>738156.904874074</v>
       </c>
       <c r="AE20" t="n">
-        <v>898712.8052341973</v>
+        <v>1009978.842433017</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.411724269563959e-06</v>
+        <v>2.428845075659021e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>14.71450617283951</v>
       </c>
       <c r="AH20" t="n">
-        <v>812940.9164539891</v>
+        <v>913587.879225417</v>
       </c>
     </row>
     <row r="21">
@@ -16124,28 +16124,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>659.1143479701823</v>
+        <v>740.4346590357395</v>
       </c>
       <c r="AB21" t="n">
-        <v>901.8293289656092</v>
+        <v>1013.095366164429</v>
       </c>
       <c r="AC21" t="n">
-        <v>815.7600035345436</v>
+        <v>916.4069663059717</v>
       </c>
       <c r="AD21" t="n">
-        <v>659114.3479701823</v>
+        <v>740434.6590357395</v>
       </c>
       <c r="AE21" t="n">
-        <v>901829.3289656092</v>
+        <v>1013095.366164429</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.411562745047991e-06</v>
+        <v>2.428567175764782e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>15</v>
+        <v>14.71450617283951</v>
       </c>
       <c r="AH21" t="n">
-        <v>815760.0035345436</v>
+        <v>916406.9663059716</v>
       </c>
     </row>
   </sheetData>
@@ -16421,28 +16421,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>480.1702089959097</v>
+        <v>557.6421474876296</v>
       </c>
       <c r="AB2" t="n">
-        <v>656.990063562761</v>
+        <v>762.9905876278407</v>
       </c>
       <c r="AC2" t="n">
-        <v>594.2878539876757</v>
+        <v>690.1718368086541</v>
       </c>
       <c r="AD2" t="n">
-        <v>480170.2089959097</v>
+        <v>557642.1474876296</v>
       </c>
       <c r="AE2" t="n">
-        <v>656990.0635627609</v>
+        <v>762990.5876278407</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.500050614650282e-06</v>
+        <v>3.007092030093094e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.57021604938272</v>
       </c>
       <c r="AH2" t="n">
-        <v>594287.8539876757</v>
+        <v>690171.8368086541</v>
       </c>
     </row>
     <row r="3">
@@ -16527,28 +16527,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>404.5516711580886</v>
+        <v>464.8740890470886</v>
       </c>
       <c r="AB3" t="n">
-        <v>553.5254440386117</v>
+        <v>636.0612374315981</v>
       </c>
       <c r="AC3" t="n">
-        <v>500.6977525374058</v>
+        <v>575.3564456486791</v>
       </c>
       <c r="AD3" t="n">
-        <v>404551.6711580886</v>
+        <v>464874.0890470886</v>
       </c>
       <c r="AE3" t="n">
-        <v>553525.4440386117</v>
+        <v>636061.2374315981</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.639810485061643e-06</v>
+        <v>3.287263104546355e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.16203703703703</v>
       </c>
       <c r="AH3" t="n">
-        <v>500697.7525374058</v>
+        <v>575356.4456486792</v>
       </c>
     </row>
     <row r="4">
@@ -16633,28 +16633,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>404.4971524583084</v>
+        <v>464.8195703473084</v>
       </c>
       <c r="AB4" t="n">
-        <v>553.4508491483772</v>
+        <v>635.9866425413636</v>
       </c>
       <c r="AC4" t="n">
-        <v>500.6302768788007</v>
+        <v>575.288969990074</v>
       </c>
       <c r="AD4" t="n">
-        <v>404497.1524583084</v>
+        <v>464819.5703473084</v>
       </c>
       <c r="AE4" t="n">
-        <v>553450.8491483772</v>
+        <v>635986.6425413636</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.645674084972862e-06</v>
+        <v>3.299017630952646e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.10416666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>500630.2768788007</v>
+        <v>575288.9699900739</v>
       </c>
     </row>
   </sheetData>
@@ -16930,28 +16930,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1212.191291089189</v>
+        <v>1320.062808930632</v>
       </c>
       <c r="AB2" t="n">
-        <v>1658.573602573695</v>
+        <v>1806.168172239856</v>
       </c>
       <c r="AC2" t="n">
-        <v>1500.281665766733</v>
+        <v>1633.790016854235</v>
       </c>
       <c r="AD2" t="n">
-        <v>1212191.291089189</v>
+        <v>1320062.808930632</v>
       </c>
       <c r="AE2" t="n">
-        <v>1658573.602573695</v>
+        <v>1806168.172239856</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.665421719972006e-07</v>
+        <v>1.711818007359439e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>23</v>
+        <v>22.34567901234568</v>
       </c>
       <c r="AH2" t="n">
-        <v>1500281.665766733</v>
+        <v>1633790.016854235</v>
       </c>
     </row>
     <row r="3">
@@ -17036,28 +17036,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>843.4773752391819</v>
+        <v>931.8056409380164</v>
       </c>
       <c r="AB3" t="n">
-        <v>1154.082956397782</v>
+        <v>1274.93758629499</v>
       </c>
       <c r="AC3" t="n">
-        <v>1043.938898804779</v>
+        <v>1153.259332445136</v>
       </c>
       <c r="AD3" t="n">
-        <v>843477.3752391819</v>
+        <v>931805.6409380164</v>
       </c>
       <c r="AE3" t="n">
-        <v>1154082.956397782</v>
+        <v>1274937.58629499</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.22235370416997e-06</v>
+        <v>2.164879239399321e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.66589506172839</v>
       </c>
       <c r="AH3" t="n">
-        <v>1043938.89880478</v>
+        <v>1153259.332445136</v>
       </c>
     </row>
     <row r="4">
@@ -17142,28 +17142,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>752.9913147318653</v>
+        <v>831.4200773403643</v>
       </c>
       <c r="AB4" t="n">
-        <v>1030.275936448421</v>
+        <v>1137.585629482179</v>
       </c>
       <c r="AC4" t="n">
-        <v>931.9478470751412</v>
+        <v>1029.016053615857</v>
       </c>
       <c r="AD4" t="n">
-        <v>752991.3147318653</v>
+        <v>831420.0773403643</v>
       </c>
       <c r="AE4" t="n">
-        <v>1030275.936448421</v>
+        <v>1137585.629482178</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.317289450026648e-06</v>
+        <v>2.333017499692458e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.39274691358025</v>
       </c>
       <c r="AH4" t="n">
-        <v>931947.8470751413</v>
+        <v>1029016.053615857</v>
       </c>
     </row>
     <row r="5">
@@ -17248,28 +17248,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>704.5162473783581</v>
+        <v>783.0302613328778</v>
       </c>
       <c r="AB5" t="n">
-        <v>963.9502107263133</v>
+        <v>1071.37654841272</v>
       </c>
       <c r="AC5" t="n">
-        <v>871.9521555272112</v>
+        <v>969.1258743186395</v>
       </c>
       <c r="AD5" t="n">
-        <v>704516.2473783582</v>
+        <v>783030.2613328778</v>
       </c>
       <c r="AE5" t="n">
-        <v>963950.2107263133</v>
+        <v>1071376.54841272</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.366324658381866e-06</v>
+        <v>2.419862497343866e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.80632716049383</v>
       </c>
       <c r="AH5" t="n">
-        <v>871952.1555272111</v>
+        <v>969125.8743186395</v>
       </c>
     </row>
     <row r="6">
@@ -17354,28 +17354,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>679.5407868200934</v>
+        <v>757.8842085740207</v>
       </c>
       <c r="AB6" t="n">
-        <v>929.7776837509396</v>
+        <v>1036.9706096625</v>
       </c>
       <c r="AC6" t="n">
-        <v>841.041006564924</v>
+        <v>938.0035900737013</v>
       </c>
       <c r="AD6" t="n">
-        <v>679540.7868200934</v>
+        <v>757884.2085740207</v>
       </c>
       <c r="AE6" t="n">
-        <v>929777.6837509396</v>
+        <v>1036970.6096625</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.397279533062728e-06</v>
+        <v>2.474685880564447e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.45524691358025</v>
       </c>
       <c r="AH6" t="n">
-        <v>841041.006564924</v>
+        <v>938003.5900737012</v>
       </c>
     </row>
     <row r="7">
@@ -17460,28 +17460,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>662.798836164312</v>
+        <v>741.1422579182394</v>
       </c>
       <c r="AB7" t="n">
-        <v>906.8706082609646</v>
+        <v>1014.063534172525</v>
       </c>
       <c r="AC7" t="n">
-        <v>820.32015020943</v>
+        <v>917.2827337182073</v>
       </c>
       <c r="AD7" t="n">
-        <v>662798.836164312</v>
+        <v>741142.2579182393</v>
       </c>
       <c r="AE7" t="n">
-        <v>906870.6082609645</v>
+        <v>1014063.534172525</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.416535368307243e-06</v>
+        <v>2.508789395623905e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.24691358024691</v>
       </c>
       <c r="AH7" t="n">
-        <v>820320.15020943</v>
+        <v>917282.7337182073</v>
       </c>
     </row>
     <row r="8">
@@ -17566,28 +17566,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>648.754143921961</v>
+        <v>717.4539956407168</v>
       </c>
       <c r="AB8" t="n">
-        <v>887.654040726888</v>
+        <v>981.6522086720425</v>
       </c>
       <c r="AC8" t="n">
-        <v>802.9375849101839</v>
+        <v>887.9646996339103</v>
       </c>
       <c r="AD8" t="n">
-        <v>648754.1439219611</v>
+        <v>717453.9956407169</v>
       </c>
       <c r="AE8" t="n">
-        <v>887654.040726888</v>
+        <v>981652.2086720426</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.430977244740629e-06</v>
+        <v>2.534367031918498e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.09259259259259</v>
       </c>
       <c r="AH8" t="n">
-        <v>802937.5849101839</v>
+        <v>887964.6996339103</v>
       </c>
     </row>
     <row r="9">
@@ -17672,28 +17672,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>625.9926090700766</v>
+        <v>704.4212821700247</v>
       </c>
       <c r="AB9" t="n">
-        <v>856.5107045744927</v>
+        <v>963.820275138702</v>
       </c>
       <c r="AC9" t="n">
-        <v>774.7665250502263</v>
+        <v>871.8346208097157</v>
       </c>
       <c r="AD9" t="n">
-        <v>625992.6090700766</v>
+        <v>704421.2821700247</v>
       </c>
       <c r="AE9" t="n">
-        <v>856510.7045744928</v>
+        <v>963820.275138702</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.443124094298942e-06</v>
+        <v>2.555880005081004e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.96527777777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>774766.5250502262</v>
+        <v>871834.6208097157</v>
       </c>
     </row>
     <row r="10">
@@ -17778,28 +17778,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>615.0793945484797</v>
+        <v>693.5080676484278</v>
       </c>
       <c r="AB10" t="n">
-        <v>841.5787630089987</v>
+        <v>948.8883335732081</v>
       </c>
       <c r="AC10" t="n">
-        <v>761.2596670306315</v>
+        <v>858.3277627901209</v>
       </c>
       <c r="AD10" t="n">
-        <v>615079.3945484797</v>
+        <v>693508.0676484278</v>
       </c>
       <c r="AE10" t="n">
-        <v>841578.7630089987</v>
+        <v>948888.3335732081</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.452080296738251e-06</v>
+        <v>2.571742105108658e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.87268518518518</v>
       </c>
       <c r="AH10" t="n">
-        <v>761259.6670306314</v>
+        <v>858327.7627901209</v>
       </c>
     </row>
     <row r="11">
@@ -17884,28 +17884,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>606.0027568543612</v>
+        <v>684.4314299543092</v>
       </c>
       <c r="AB11" t="n">
-        <v>829.159706882912</v>
+        <v>936.4692774471213</v>
       </c>
       <c r="AC11" t="n">
-        <v>750.0258681909636</v>
+        <v>847.0939639504531</v>
       </c>
       <c r="AD11" t="n">
-        <v>606002.7568543613</v>
+        <v>684431.4299543092</v>
       </c>
       <c r="AE11" t="n">
-        <v>829159.706882912</v>
+        <v>936469.2774471212</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.458573543506751e-06</v>
+        <v>2.583242127628708e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.8070987654321</v>
       </c>
       <c r="AH11" t="n">
-        <v>750025.8681909636</v>
+        <v>847093.9639504531</v>
       </c>
     </row>
     <row r="12">
@@ -17990,28 +17990,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>596.3259810733032</v>
+        <v>674.754654173251</v>
       </c>
       <c r="AB12" t="n">
-        <v>815.9195153500503</v>
+        <v>923.2290859142597</v>
       </c>
       <c r="AC12" t="n">
-        <v>738.0493019552729</v>
+        <v>835.1173977147622</v>
       </c>
       <c r="AD12" t="n">
-        <v>596325.9810733031</v>
+        <v>674754.654173251</v>
       </c>
       <c r="AE12" t="n">
-        <v>815919.5153500503</v>
+        <v>923229.0859142597</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.46389128870509e-06</v>
+        <v>2.592660249520128e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.75308641975309</v>
       </c>
       <c r="AH12" t="n">
-        <v>738049.3019552729</v>
+        <v>835117.3977147622</v>
       </c>
     </row>
     <row r="13">
@@ -18096,28 +18096,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>587.5529023870572</v>
+        <v>665.9815754870052</v>
       </c>
       <c r="AB13" t="n">
-        <v>803.9158020506131</v>
+        <v>911.2253726148225</v>
       </c>
       <c r="AC13" t="n">
-        <v>727.1912062058165</v>
+        <v>824.2593019653059</v>
       </c>
       <c r="AD13" t="n">
-        <v>587552.9023870572</v>
+        <v>665981.5754870052</v>
       </c>
       <c r="AE13" t="n">
-        <v>803915.8020506131</v>
+        <v>911225.3726148225</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.46881720004671e-06</v>
+        <v>2.601384404535338e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.70293209876543</v>
       </c>
       <c r="AH13" t="n">
-        <v>727191.2062058165</v>
+        <v>824259.3019653059</v>
       </c>
     </row>
     <row r="14">
@@ -18202,28 +18202,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>585.8213631973092</v>
+        <v>664.2500362972572</v>
       </c>
       <c r="AB14" t="n">
-        <v>801.5466337410821</v>
+        <v>908.8562043052916</v>
       </c>
       <c r="AC14" t="n">
-        <v>725.0481479945986</v>
+        <v>822.1162437540879</v>
       </c>
       <c r="AD14" t="n">
-        <v>585821.3631973092</v>
+        <v>664250.0362972572</v>
       </c>
       <c r="AE14" t="n">
-        <v>801546.6337410822</v>
+        <v>908856.2043052916</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.470384535473589e-06</v>
+        <v>2.604160272040177e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.6875</v>
       </c>
       <c r="AH14" t="n">
-        <v>725048.1479945986</v>
+        <v>822116.2437540879</v>
       </c>
     </row>
   </sheetData>
@@ -18499,28 +18499,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1402.892410851179</v>
+        <v>1532.750221161769</v>
       </c>
       <c r="AB2" t="n">
-        <v>1919.499287771685</v>
+        <v>2097.176472760898</v>
       </c>
       <c r="AC2" t="n">
-        <v>1736.304969780926</v>
+        <v>1897.024893606264</v>
       </c>
       <c r="AD2" t="n">
-        <v>1402892.410851179</v>
+        <v>1532750.221161769</v>
       </c>
       <c r="AE2" t="n">
-        <v>1919499.287771685</v>
+        <v>2097176.472760898</v>
       </c>
       <c r="AF2" t="n">
-        <v>8.878952213786512e-07</v>
+        <v>1.548411735780084e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.83101851851852</v>
       </c>
       <c r="AH2" t="n">
-        <v>1736304.969780926</v>
+        <v>1897024.893606264</v>
       </c>
     </row>
     <row r="3">
@@ -18605,28 +18605,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>943.2544100513521</v>
+        <v>1033.188883949762</v>
       </c>
       <c r="AB3" t="n">
-        <v>1290.602297279902</v>
+        <v>1413.654612096674</v>
       </c>
       <c r="AC3" t="n">
-        <v>1167.429025399208</v>
+        <v>1278.737399994876</v>
       </c>
       <c r="AD3" t="n">
-        <v>943254.4100513521</v>
+        <v>1033188.883949762</v>
       </c>
       <c r="AE3" t="n">
-        <v>1290602.297279902</v>
+        <v>1413654.612096674</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.157406439974901e-06</v>
+        <v>2.018415767506771e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>19</v>
+        <v>18.28317901234568</v>
       </c>
       <c r="AH3" t="n">
-        <v>1167429.025399208</v>
+        <v>1278737.399994876</v>
       </c>
     </row>
     <row r="4">
@@ -18711,28 +18711,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>823.4981409179487</v>
+        <v>913.4325253078079</v>
       </c>
       <c r="AB4" t="n">
-        <v>1126.74648657786</v>
+        <v>1249.798678925084</v>
       </c>
       <c r="AC4" t="n">
-        <v>1019.211383297495</v>
+        <v>1130.519647111936</v>
       </c>
       <c r="AD4" t="n">
-        <v>823498.1409179487</v>
+        <v>913432.5253078078</v>
       </c>
       <c r="AE4" t="n">
-        <v>1126746.48657786</v>
+        <v>1249798.678925084</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.26051614509516e-06</v>
+        <v>2.198230089779088e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.78626543209877</v>
       </c>
       <c r="AH4" t="n">
-        <v>1019211.383297494</v>
+        <v>1130519.647111936</v>
       </c>
     </row>
     <row r="5">
@@ -18817,28 +18817,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>777.4843171057524</v>
+        <v>857.416599310337</v>
       </c>
       <c r="AB5" t="n">
-        <v>1063.788342851376</v>
+        <v>1173.155217727101</v>
       </c>
       <c r="AC5" t="n">
-        <v>962.2618764459562</v>
+        <v>1061.190930280915</v>
       </c>
       <c r="AD5" t="n">
-        <v>777484.3171057524</v>
+        <v>857416.599310337</v>
       </c>
       <c r="AE5" t="n">
-        <v>1063788.342851376</v>
+        <v>1173155.217727101</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.314484203519806e-06</v>
+        <v>2.292345671223749e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.09567901234568</v>
       </c>
       <c r="AH5" t="n">
-        <v>962261.8764459562</v>
+        <v>1061190.930280915</v>
       </c>
     </row>
     <row r="6">
@@ -18923,28 +18923,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>740.0229676392756</v>
+        <v>820.0405011898808</v>
       </c>
       <c r="AB6" t="n">
-        <v>1012.532071833244</v>
+        <v>1122.015591361619</v>
       </c>
       <c r="AC6" t="n">
-        <v>915.8974319951669</v>
+        <v>1014.931998080838</v>
       </c>
       <c r="AD6" t="n">
-        <v>740022.9676392756</v>
+        <v>820040.5011898809</v>
       </c>
       <c r="AE6" t="n">
-        <v>1012532.071833244</v>
+        <v>1122015.591361619</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.347007637102951e-06</v>
+        <v>2.34906369947241e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.70987654320988</v>
       </c>
       <c r="AH6" t="n">
-        <v>915897.4319951669</v>
+        <v>1014931.998080838</v>
       </c>
     </row>
     <row r="7">
@@ -19029,28 +19029,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>720.8023196038853</v>
+        <v>800.6492609538983</v>
       </c>
       <c r="AB7" t="n">
-        <v>986.2335332360777</v>
+        <v>1095.483640989605</v>
       </c>
       <c r="AC7" t="n">
-        <v>892.1087890114831</v>
+        <v>990.9322198145034</v>
       </c>
       <c r="AD7" t="n">
-        <v>720802.3196038853</v>
+        <v>800649.2609538983</v>
       </c>
       <c r="AE7" t="n">
-        <v>986233.5332360778</v>
+        <v>1095483.640989605</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.368891026647091e-06</v>
+        <v>2.387226419997226e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.45910493827161</v>
       </c>
       <c r="AH7" t="n">
-        <v>892108.7890114831</v>
+        <v>990932.2198145033</v>
       </c>
     </row>
     <row r="8">
@@ -19135,28 +19135,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>704.4958765036862</v>
+        <v>784.3428178536992</v>
       </c>
       <c r="AB8" t="n">
-        <v>963.9223383968878</v>
+        <v>1073.172446150415</v>
       </c>
       <c r="AC8" t="n">
-        <v>871.9269432937868</v>
+        <v>970.7503740968068</v>
       </c>
       <c r="AD8" t="n">
-        <v>704495.8765036862</v>
+        <v>784342.8178536992</v>
       </c>
       <c r="AE8" t="n">
-        <v>963922.3383968878</v>
+        <v>1073172.446150415</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.386551305928327e-06</v>
+        <v>2.418024404982166e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.26234567901235</v>
       </c>
       <c r="AH8" t="n">
-        <v>871926.9432937868</v>
+        <v>970750.3740968069</v>
       </c>
     </row>
     <row r="9">
@@ -19241,28 +19241,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>692.7705508308871</v>
+        <v>762.7859821962177</v>
       </c>
       <c r="AB9" t="n">
-        <v>947.8792305265034</v>
+        <v>1043.677432583379</v>
       </c>
       <c r="AC9" t="n">
-        <v>857.4149671219085</v>
+        <v>944.0703232280975</v>
       </c>
       <c r="AD9" t="n">
-        <v>692770.5508308872</v>
+        <v>762785.9821962176</v>
       </c>
       <c r="AE9" t="n">
-        <v>947879.2305265034</v>
+        <v>1043677.432583379</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.39845279848742e-06</v>
+        <v>2.438779568776365e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.13117283950617</v>
       </c>
       <c r="AH9" t="n">
-        <v>857414.9671219084</v>
+        <v>944070.3232280975</v>
       </c>
     </row>
     <row r="10">
@@ -19347,28 +19347,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>682.1032884807568</v>
+        <v>752.1187198460872</v>
       </c>
       <c r="AB10" t="n">
-        <v>933.2838115726537</v>
+        <v>1029.08201362953</v>
       </c>
       <c r="AC10" t="n">
-        <v>844.2125144682152</v>
+        <v>930.867870574404</v>
       </c>
       <c r="AD10" t="n">
-        <v>682103.2884807568</v>
+        <v>752118.7198460872</v>
       </c>
       <c r="AE10" t="n">
-        <v>933283.8115726537</v>
+        <v>1029082.01362953</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.407118401364548e-06</v>
+        <v>2.453891623520528e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.03858024691358</v>
       </c>
       <c r="AH10" t="n">
-        <v>844212.5144682152</v>
+        <v>930867.870574404</v>
       </c>
     </row>
     <row r="11">
@@ -19453,28 +19453,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>662.0140709314635</v>
+        <v>741.9462636274972</v>
       </c>
       <c r="AB11" t="n">
-        <v>905.7968578479828</v>
+        <v>1015.163610254159</v>
       </c>
       <c r="AC11" t="n">
-        <v>819.348877028845</v>
+        <v>918.2778200825774</v>
       </c>
       <c r="AD11" t="n">
-        <v>662014.0709314635</v>
+        <v>741946.2636274971</v>
       </c>
       <c r="AE11" t="n">
-        <v>905796.8578479828</v>
+        <v>1015163.61025416</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.415454930714697e-06</v>
+        <v>2.468429802768077e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.94984567901235</v>
       </c>
       <c r="AH11" t="n">
-        <v>819348.877028845</v>
+        <v>918277.8200825774</v>
       </c>
     </row>
     <row r="12">
@@ -19559,28 +19559,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>653.2345361724205</v>
+        <v>733.1667288684541</v>
       </c>
       <c r="AB12" t="n">
-        <v>893.7843110649227</v>
+        <v>1003.151063471099</v>
       </c>
       <c r="AC12" t="n">
-        <v>808.4827908510449</v>
+        <v>907.4117339047772</v>
       </c>
       <c r="AD12" t="n">
-        <v>653234.5361724205</v>
+        <v>733166.7288684541</v>
       </c>
       <c r="AE12" t="n">
-        <v>893784.3110649227</v>
+        <v>1003151.063471099</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.422420320369098e-06</v>
+        <v>2.480576834113069e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.87654320987655</v>
       </c>
       <c r="AH12" t="n">
-        <v>808482.7908510449</v>
+        <v>907411.7339047772</v>
       </c>
     </row>
     <row r="13">
@@ -19665,28 +19665,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>645.0475273338069</v>
+        <v>724.9797200298402</v>
       </c>
       <c r="AB13" t="n">
-        <v>882.5824843865925</v>
+        <v>991.9492367927693</v>
       </c>
       <c r="AC13" t="n">
-        <v>798.350050789032</v>
+        <v>897.2789938427645</v>
       </c>
       <c r="AD13" t="n">
-        <v>645047.5273338069</v>
+        <v>724979.7200298402</v>
       </c>
       <c r="AE13" t="n">
-        <v>882582.4843865924</v>
+        <v>991949.2367927693</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.426533739456342e-06</v>
+        <v>2.487750277820741e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.83410493827161</v>
       </c>
       <c r="AH13" t="n">
-        <v>798350.050789032</v>
+        <v>897278.9938427645</v>
       </c>
     </row>
     <row r="14">
@@ -19771,28 +19771,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>636.267825864696</v>
+        <v>716.2000185607294</v>
       </c>
       <c r="AB14" t="n">
-        <v>870.5697095034627</v>
+        <v>979.9364619096395</v>
       </c>
       <c r="AC14" t="n">
-        <v>787.4837582807129</v>
+        <v>886.4127013344452</v>
       </c>
       <c r="AD14" t="n">
-        <v>636267.8258646959</v>
+        <v>716200.0185607295</v>
       </c>
       <c r="AE14" t="n">
-        <v>870569.7095034628</v>
+        <v>979936.4619096395</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.430702004131416e-06</v>
+        <v>2.495019367444515e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.78780864197531</v>
       </c>
       <c r="AH14" t="n">
-        <v>787483.7582807129</v>
+        <v>886412.7013344452</v>
       </c>
     </row>
     <row r="15">
@@ -19877,28 +19877,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>628.8993255015561</v>
+        <v>708.8315181975895</v>
       </c>
       <c r="AB15" t="n">
-        <v>860.4878022313213</v>
+        <v>969.8545546374983</v>
       </c>
       <c r="AC15" t="n">
-        <v>778.364054088579</v>
+        <v>877.2929971423113</v>
       </c>
       <c r="AD15" t="n">
-        <v>628899.325501556</v>
+        <v>708831.5181975896</v>
       </c>
       <c r="AE15" t="n">
-        <v>860487.8022313213</v>
+        <v>969854.5546374982</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.435692952623939e-06</v>
+        <v>2.503723145809825e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.73765432098766</v>
       </c>
       <c r="AH15" t="n">
-        <v>778364.054088579</v>
+        <v>877292.9971423113</v>
       </c>
     </row>
     <row r="16">
@@ -19983,28 +19983,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>621.4770012871392</v>
+        <v>701.4091939831727</v>
       </c>
       <c r="AB16" t="n">
-        <v>850.3322507913222</v>
+        <v>959.699003197499</v>
       </c>
       <c r="AC16" t="n">
-        <v>769.1777342246072</v>
+        <v>868.1066772783396</v>
       </c>
       <c r="AD16" t="n">
-        <v>621477.0012871391</v>
+        <v>701409.1939831728</v>
       </c>
       <c r="AE16" t="n">
-        <v>850332.2507913222</v>
+        <v>959699.003197499</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.439641834947694e-06</v>
+        <v>2.51060965176919e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14.69907407407408</v>
       </c>
       <c r="AH16" t="n">
-        <v>769177.7342246072</v>
+        <v>868106.6772783396</v>
       </c>
     </row>
     <row r="17">
@@ -20089,28 +20089,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>622.9446237453071</v>
+        <v>702.8768164413406</v>
       </c>
       <c r="AB17" t="n">
-        <v>852.3403165855206</v>
+        <v>961.7070689916974</v>
       </c>
       <c r="AC17" t="n">
-        <v>770.9941530377455</v>
+        <v>869.9230960914778</v>
       </c>
       <c r="AD17" t="n">
-        <v>622944.6237453071</v>
+        <v>702876.8164413406</v>
       </c>
       <c r="AE17" t="n">
-        <v>852340.3165855205</v>
+        <v>961707.0689916974</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.438599768778925e-06</v>
+        <v>2.508792379363246e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>14.70679012345679</v>
       </c>
       <c r="AH17" t="n">
-        <v>770994.1530377455</v>
+        <v>869923.0960914778</v>
       </c>
     </row>
   </sheetData>
@@ -20386,28 +20386,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1881.219204966315</v>
+        <v>2025.772567299614</v>
       </c>
       <c r="AB2" t="n">
-        <v>2573.967109768846</v>
+        <v>2771.751397357528</v>
       </c>
       <c r="AC2" t="n">
-        <v>2328.311301398034</v>
+        <v>2507.219334171244</v>
       </c>
       <c r="AD2" t="n">
-        <v>1881219.204966315</v>
+        <v>2025772.567299614</v>
       </c>
       <c r="AE2" t="n">
-        <v>2573967.109768846</v>
+        <v>2771751.397357528</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.495523677978314e-07</v>
+        <v>1.274189347639682e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>28</v>
+        <v>27.24922839506173</v>
       </c>
       <c r="AH2" t="n">
-        <v>2328311.301398034</v>
+        <v>2507219.334171244</v>
       </c>
     </row>
     <row r="3">
@@ -20492,28 +20492,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1139.458145307326</v>
+        <v>1242.832398545819</v>
       </c>
       <c r="AB3" t="n">
-        <v>1559.056903755022</v>
+        <v>1700.498117586113</v>
       </c>
       <c r="AC3" t="n">
-        <v>1410.262701010749</v>
+        <v>1538.204963907792</v>
       </c>
       <c r="AD3" t="n">
-        <v>1139458.145307326</v>
+        <v>1242832.398545819</v>
       </c>
       <c r="AE3" t="n">
-        <v>1559056.903755022</v>
+        <v>1700498.117586114</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.045265308437614e-06</v>
+        <v>1.776881747944453e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.54089506172839</v>
       </c>
       <c r="AH3" t="n">
-        <v>1410262.701010749</v>
+        <v>1538204.963907792</v>
       </c>
     </row>
     <row r="4">
@@ -20598,28 +20598,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>976.6197480919343</v>
+        <v>1069.656576006578</v>
       </c>
       <c r="AB4" t="n">
-        <v>1336.254224761855</v>
+        <v>1463.551317209837</v>
       </c>
       <c r="AC4" t="n">
-        <v>1208.723996995166</v>
+        <v>1323.872033602504</v>
       </c>
       <c r="AD4" t="n">
-        <v>976619.7480919342</v>
+        <v>1069656.576006579</v>
       </c>
       <c r="AE4" t="n">
-        <v>1336254.224761855</v>
+        <v>1463551.317209837</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.160564768644103e-06</v>
+        <v>1.972883188664789e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.60030864197531</v>
       </c>
       <c r="AH4" t="n">
-        <v>1208723.996995166</v>
+        <v>1323872.033602505</v>
       </c>
     </row>
     <row r="5">
@@ -20704,28 +20704,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>902.2073386719518</v>
+        <v>995.1588257320244</v>
       </c>
       <c r="AB5" t="n">
-        <v>1234.439883349622</v>
+        <v>1361.620208675408</v>
       </c>
       <c r="AC5" t="n">
-        <v>1116.626673429991</v>
+        <v>1231.669087005391</v>
       </c>
       <c r="AD5" t="n">
-        <v>902207.3386719518</v>
+        <v>995158.8257320244</v>
       </c>
       <c r="AE5" t="n">
-        <v>1234439.883349622</v>
+        <v>1361620.208675408</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.222873062796095e-06</v>
+        <v>2.078803159155071e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.70138888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>1116626.673429991</v>
+        <v>1231669.087005391</v>
       </c>
     </row>
     <row r="6">
@@ -20810,28 +20810,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>868.4482667800677</v>
+        <v>951.062418024842</v>
       </c>
       <c r="AB6" t="n">
-        <v>1188.249231842007</v>
+        <v>1301.285558254232</v>
       </c>
       <c r="AC6" t="n">
-        <v>1074.844392873277</v>
+        <v>1177.092690940199</v>
       </c>
       <c r="AD6" t="n">
-        <v>868448.2667800677</v>
+        <v>951062.418024842</v>
       </c>
       <c r="AE6" t="n">
-        <v>1188249.231842007</v>
+        <v>1301285.558254232</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.258341675439964e-06</v>
+        <v>2.139097449918443e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.23070987654321</v>
       </c>
       <c r="AH6" t="n">
-        <v>1074844.392873276</v>
+        <v>1177092.690940199</v>
       </c>
     </row>
     <row r="7">
@@ -20916,28 +20916,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>831.8737844738262</v>
+        <v>924.7399306793271</v>
       </c>
       <c r="AB7" t="n">
-        <v>1138.206411598327</v>
+        <v>1265.269969801915</v>
       </c>
       <c r="AC7" t="n">
-        <v>1029.577589158114</v>
+        <v>1144.514379701575</v>
       </c>
       <c r="AD7" t="n">
-        <v>831873.7844738262</v>
+        <v>924739.9306793271</v>
       </c>
       <c r="AE7" t="n">
-        <v>1138206.411598327</v>
+        <v>1265269.969801915</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.28592249213766e-06</v>
+        <v>2.185983010347871e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.88348765432099</v>
       </c>
       <c r="AH7" t="n">
-        <v>1029577.589158114</v>
+        <v>1144514.379701575</v>
       </c>
     </row>
     <row r="8">
@@ -21022,28 +21022,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>814.3137633689383</v>
+        <v>897.0131659597331</v>
       </c>
       <c r="AB8" t="n">
-        <v>1114.180016029163</v>
+        <v>1227.332987094037</v>
       </c>
       <c r="AC8" t="n">
-        <v>1007.844239060813</v>
+        <v>1110.198049378448</v>
       </c>
       <c r="AD8" t="n">
-        <v>814313.7633689384</v>
+        <v>897013.1659597331</v>
       </c>
       <c r="AE8" t="n">
-        <v>1114180.016029163</v>
+        <v>1227332.987094037</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.304397933649168e-06</v>
+        <v>2.217390036432076e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.65586419753086</v>
       </c>
       <c r="AH8" t="n">
-        <v>1007844.239060813</v>
+        <v>1110198.049378448</v>
       </c>
     </row>
     <row r="9">
@@ -21128,28 +21128,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>800.5664643847027</v>
+        <v>883.0952747749053</v>
       </c>
       <c r="AB9" t="n">
-        <v>1095.370355070905</v>
+        <v>1208.289914360932</v>
       </c>
       <c r="AC9" t="n">
-        <v>990.8297457448857</v>
+        <v>1092.972420779869</v>
       </c>
       <c r="AD9" t="n">
-        <v>800566.4643847027</v>
+        <v>883095.2747749053</v>
       </c>
       <c r="AE9" t="n">
-        <v>1095370.355070905</v>
+        <v>1208289.914360932</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.318479502251062e-06</v>
+        <v>2.241327769779922e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.48996913580247</v>
       </c>
       <c r="AH9" t="n">
-        <v>990829.7457448858</v>
+        <v>1092972.420779869</v>
       </c>
     </row>
     <row r="10">
@@ -21234,28 +21234,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>788.5842786393566</v>
+        <v>871.1130890295593</v>
       </c>
       <c r="AB10" t="n">
-        <v>1078.975799917395</v>
+        <v>1191.895359207422</v>
       </c>
       <c r="AC10" t="n">
-        <v>975.9998639253248</v>
+        <v>1078.142538960308</v>
       </c>
       <c r="AD10" t="n">
-        <v>788584.2786393566</v>
+        <v>871113.0890295593</v>
       </c>
       <c r="AE10" t="n">
-        <v>1078975.799917395</v>
+        <v>1191895.359207422</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.32996709768945e-06</v>
+        <v>2.260855920668954e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.35493827160494</v>
       </c>
       <c r="AH10" t="n">
-        <v>975999.8639253248</v>
+        <v>1078142.538960308</v>
       </c>
     </row>
     <row r="11">
@@ -21340,28 +21340,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>778.2874687479823</v>
+        <v>860.8162791381849</v>
       </c>
       <c r="AB11" t="n">
-        <v>1064.887250360825</v>
+        <v>1177.806809650851</v>
       </c>
       <c r="AC11" t="n">
-        <v>963.2559057650296</v>
+        <v>1065.398580800013</v>
       </c>
       <c r="AD11" t="n">
-        <v>778287.4687479823</v>
+        <v>860816.2791381849</v>
       </c>
       <c r="AE11" t="n">
-        <v>1064887.250360825</v>
+        <v>1177806.809650851</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.339072472875637e-06</v>
+        <v>2.276334455014178e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.25077160493827</v>
       </c>
       <c r="AH11" t="n">
-        <v>963255.9057650296</v>
+        <v>1065398.580800013</v>
       </c>
     </row>
     <row r="12">
@@ -21446,28 +21446,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>768.1945241252727</v>
+        <v>840.556590900769</v>
       </c>
       <c r="AB12" t="n">
-        <v>1051.077638258742</v>
+        <v>1150.086610410055</v>
       </c>
       <c r="AC12" t="n">
-        <v>950.7642636600573</v>
+        <v>1040.323958469214</v>
       </c>
       <c r="AD12" t="n">
-        <v>768194.5241252726</v>
+        <v>840556.590900769</v>
       </c>
       <c r="AE12" t="n">
-        <v>1051077.638258742</v>
+        <v>1150086.610410055</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.348760168567918e-06</v>
+        <v>2.292802895625667e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.14274691358025</v>
       </c>
       <c r="AH12" t="n">
-        <v>950764.2636600573</v>
+        <v>1040323.958469214</v>
       </c>
     </row>
     <row r="13">
@@ -21552,28 +21552,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>760.1095243663527</v>
+        <v>832.4715911418492</v>
       </c>
       <c r="AB13" t="n">
-        <v>1040.015384903572</v>
+        <v>1139.024357054885</v>
       </c>
       <c r="AC13" t="n">
-        <v>940.7577762391347</v>
+        <v>1030.317471048292</v>
       </c>
       <c r="AD13" t="n">
-        <v>760109.5243663527</v>
+        <v>832471.5911418492</v>
       </c>
       <c r="AE13" t="n">
-        <v>1040015.384903572</v>
+        <v>1139024.357054885</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.354848064767985e-06</v>
+        <v>2.303151915682066e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>15.0733024691358</v>
       </c>
       <c r="AH13" t="n">
-        <v>940757.7762391347</v>
+        <v>1030317.471048292</v>
       </c>
     </row>
     <row r="14">
@@ -21658,28 +21658,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>753.3008562967256</v>
+        <v>825.662923072222</v>
       </c>
       <c r="AB14" t="n">
-        <v>1030.699464873473</v>
+        <v>1129.708437024786</v>
       </c>
       <c r="AC14" t="n">
-        <v>932.3309545417321</v>
+        <v>1021.890649350889</v>
       </c>
       <c r="AD14" t="n">
-        <v>753300.8562967256</v>
+        <v>825662.923072222</v>
       </c>
       <c r="AE14" t="n">
-        <v>1030699.464873473</v>
+        <v>1129708.437024786</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.360194825778479e-06</v>
+        <v>2.312241055035948e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>16</v>
+        <v>15.01543209876543</v>
       </c>
       <c r="AH14" t="n">
-        <v>932330.9545417321</v>
+        <v>1021890.649350889</v>
       </c>
     </row>
     <row r="15">
@@ -21764,28 +21764,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>735.9702893698701</v>
+        <v>818.5843511060935</v>
       </c>
       <c r="AB15" t="n">
-        <v>1006.987018633497</v>
+        <v>1120.023222576173</v>
       </c>
       <c r="AC15" t="n">
-        <v>910.8815908902723</v>
+        <v>1013.129778175968</v>
       </c>
       <c r="AD15" t="n">
-        <v>735970.2893698701</v>
+        <v>818584.3511060935</v>
       </c>
       <c r="AE15" t="n">
-        <v>1006987.018633497</v>
+        <v>1120023.222576173</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.364165192865479e-06</v>
+        <v>2.318990415942296e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.9729938271605</v>
       </c>
       <c r="AH15" t="n">
-        <v>910881.5908902723</v>
+        <v>1013129.778175968</v>
       </c>
     </row>
     <row r="16">
@@ -21870,28 +21870,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>728.2410147554785</v>
+        <v>810.8550764917019</v>
       </c>
       <c r="AB16" t="n">
-        <v>996.4114841145566</v>
+        <v>1109.447688057233</v>
       </c>
       <c r="AC16" t="n">
-        <v>901.3153705429637</v>
+        <v>1003.56355782866</v>
       </c>
       <c r="AD16" t="n">
-        <v>728241.0147554786</v>
+        <v>810855.0764917019</v>
       </c>
       <c r="AE16" t="n">
-        <v>996411.4841145566</v>
+        <v>1109447.688057233</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.369829583242933e-06</v>
+        <v>2.328619504168685e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14.91126543209877</v>
       </c>
       <c r="AH16" t="n">
-        <v>901315.3705429637</v>
+        <v>1003563.55782866</v>
       </c>
     </row>
     <row r="17">
@@ -21976,28 +21976,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>723.3769598214363</v>
+        <v>805.9910215576596</v>
       </c>
       <c r="AB17" t="n">
-        <v>989.756269566841</v>
+        <v>1102.792473509517</v>
       </c>
       <c r="AC17" t="n">
-        <v>895.2953203310299</v>
+        <v>997.5435076167256</v>
       </c>
       <c r="AD17" t="n">
-        <v>723376.9598214363</v>
+        <v>805991.0215576596</v>
       </c>
       <c r="AE17" t="n">
-        <v>989756.269566841</v>
+        <v>1102792.473509517</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.37147066830556e-06</v>
+        <v>2.331409240009975e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>14.89197530864198</v>
       </c>
       <c r="AH17" t="n">
-        <v>895295.3203310298</v>
+        <v>997543.5076167256</v>
       </c>
     </row>
     <row r="18">
@@ -22082,28 +22082,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>715.5132841994316</v>
+        <v>798.1273459356548</v>
       </c>
       <c r="AB18" t="n">
-        <v>978.9968416599301</v>
+        <v>1092.033045602606</v>
       </c>
       <c r="AC18" t="n">
-        <v>885.5627571226025</v>
+        <v>987.8109444082985</v>
       </c>
       <c r="AD18" t="n">
-        <v>715513.2841994317</v>
+        <v>798127.3459356548</v>
       </c>
       <c r="AE18" t="n">
-        <v>978996.8416599301</v>
+        <v>1092033.045602606</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.376499799949094e-06</v>
+        <v>2.339958430491348e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>14.83796296296297</v>
       </c>
       <c r="AH18" t="n">
-        <v>885562.7571226025</v>
+        <v>987810.9444082985</v>
       </c>
     </row>
     <row r="19">
@@ -22188,28 +22188,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>711.7023102777163</v>
+        <v>794.3163720139396</v>
       </c>
       <c r="AB19" t="n">
-        <v>973.7824990119357</v>
+        <v>1086.818702954612</v>
       </c>
       <c r="AC19" t="n">
-        <v>880.8460640185571</v>
+        <v>983.0942513042529</v>
       </c>
       <c r="AD19" t="n">
-        <v>711702.3102777163</v>
+        <v>794316.3720139395</v>
       </c>
       <c r="AE19" t="n">
-        <v>973782.4990119357</v>
+        <v>1086818.702954612</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.378087946783894e-06</v>
+        <v>2.342658174853888e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>14.81867283950617</v>
       </c>
       <c r="AH19" t="n">
-        <v>880846.0640185571</v>
+        <v>983094.2513042529</v>
       </c>
     </row>
     <row r="20">
@@ -22294,28 +22294,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>705.7060245535591</v>
+        <v>788.3200862897824</v>
       </c>
       <c r="AB20" t="n">
-        <v>965.578116346688</v>
+        <v>1078.614320289364</v>
       </c>
       <c r="AC20" t="n">
-        <v>873.4246961199569</v>
+        <v>975.6728834056528</v>
       </c>
       <c r="AD20" t="n">
-        <v>705706.0245535591</v>
+        <v>788320.0862897823</v>
       </c>
       <c r="AE20" t="n">
-        <v>965578.116346688</v>
+        <v>1078614.320289364</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.381264240453494e-06</v>
+        <v>2.348057663578966e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>14.78780864197531</v>
       </c>
       <c r="AH20" t="n">
-        <v>873424.6961199569</v>
+        <v>975672.8834056528</v>
       </c>
     </row>
     <row r="21">
@@ -22400,28 +22400,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>700.6070764731523</v>
+        <v>783.2211382093758</v>
       </c>
       <c r="AB21" t="n">
-        <v>958.6015106333622</v>
+        <v>1071.637714576038</v>
       </c>
       <c r="AC21" t="n">
-        <v>867.1139278641834</v>
+        <v>969.3621151498794</v>
       </c>
       <c r="AD21" t="n">
-        <v>700607.0764731524</v>
+        <v>783221.1382093758</v>
       </c>
       <c r="AE21" t="n">
-        <v>958601.5106333622</v>
+        <v>1071637.714576038</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.383275893110907e-06</v>
+        <v>2.351477339771515e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>15</v>
+        <v>14.76466049382716</v>
       </c>
       <c r="AH21" t="n">
-        <v>867113.9278641834</v>
+        <v>969362.1151498794</v>
       </c>
     </row>
     <row r="22">
@@ -22506,28 +22506,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>694.6799767808834</v>
+        <v>777.2940385171065</v>
       </c>
       <c r="AB22" t="n">
-        <v>950.4917913492159</v>
+        <v>1063.527995291892</v>
       </c>
       <c r="AC22" t="n">
-        <v>859.7781888064537</v>
+        <v>962.0263760921497</v>
       </c>
       <c r="AD22" t="n">
-        <v>694679.9767808834</v>
+        <v>777294.0385171066</v>
       </c>
       <c r="AE22" t="n">
-        <v>950491.7913492159</v>
+        <v>1063527.995291892</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.385869866274414e-06</v>
+        <v>2.355886922230329e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>15</v>
+        <v>14.73765432098766</v>
       </c>
       <c r="AH22" t="n">
-        <v>859778.1888064537</v>
+        <v>962026.3760921496</v>
       </c>
     </row>
     <row r="23">
@@ -22612,28 +22612,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>691.4532966089747</v>
+        <v>774.0673583451979</v>
       </c>
       <c r="AB23" t="n">
-        <v>946.0769051869281</v>
+        <v>1059.113109129604</v>
       </c>
       <c r="AC23" t="n">
-        <v>855.784653183163</v>
+        <v>958.0328404688586</v>
       </c>
       <c r="AD23" t="n">
-        <v>691453.2966089747</v>
+        <v>774067.358345198</v>
       </c>
       <c r="AE23" t="n">
-        <v>946076.9051869281</v>
+        <v>1059113.109129604</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.385393422223974e-06</v>
+        <v>2.355076998921567e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>15</v>
+        <v>14.74151234567901</v>
       </c>
       <c r="AH23" t="n">
-        <v>855784.6531831629</v>
+        <v>958032.8404688586</v>
       </c>
     </row>
     <row r="24">
@@ -22718,28 +22718,28 @@
         <v>10</v>
       </c>
       <c r="AA24" t="n">
-        <v>689.3630180843348</v>
+        <v>771.9770798205579</v>
       </c>
       <c r="AB24" t="n">
-        <v>943.2168938929352</v>
+        <v>1056.253097835611</v>
       </c>
       <c r="AC24" t="n">
-        <v>853.1975973530176</v>
+        <v>955.4457846387136</v>
       </c>
       <c r="AD24" t="n">
-        <v>689363.0180843348</v>
+        <v>771977.079820558</v>
       </c>
       <c r="AE24" t="n">
-        <v>943216.8938929352</v>
+        <v>1056253.097835612</v>
       </c>
       <c r="AF24" t="n">
-        <v>1.387934457159654e-06</v>
+        <v>2.359396589901629e-06</v>
       </c>
       <c r="AG24" t="n">
-        <v>15</v>
+        <v>14.71450617283951</v>
       </c>
       <c r="AH24" t="n">
-        <v>853197.5973530177</v>
+        <v>955445.7846387136</v>
       </c>
     </row>
     <row r="25">
@@ -22824,28 +22824,28 @@
         <v>10</v>
       </c>
       <c r="AA25" t="n">
-        <v>691.952759072581</v>
+        <v>774.5668208088041</v>
       </c>
       <c r="AB25" t="n">
-        <v>946.7602917643627</v>
+        <v>1059.796495707039</v>
       </c>
       <c r="AC25" t="n">
-        <v>856.4028183047863</v>
+        <v>958.6510055904821</v>
       </c>
       <c r="AD25" t="n">
-        <v>691952.759072581</v>
+        <v>774566.8208088041</v>
       </c>
       <c r="AE25" t="n">
-        <v>946760.2917643627</v>
+        <v>1059796.495707039</v>
       </c>
       <c r="AF25" t="n">
-        <v>1.387722704248348e-06</v>
+        <v>2.359036623986625e-06</v>
       </c>
       <c r="AG25" t="n">
-        <v>15</v>
+        <v>14.71836419753086</v>
       </c>
       <c r="AH25" t="n">
-        <v>856402.8183047862</v>
+        <v>958651.0055904821</v>
       </c>
     </row>
   </sheetData>
@@ -23121,28 +23121,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1026.715536092953</v>
+        <v>1132.319805211076</v>
       </c>
       <c r="AB2" t="n">
-        <v>1404.797491975036</v>
+        <v>1549.289911913994</v>
       </c>
       <c r="AC2" t="n">
-        <v>1270.725590986601</v>
+        <v>1401.42785716297</v>
       </c>
       <c r="AD2" t="n">
-        <v>1026715.536092954</v>
+        <v>1132319.805211076</v>
       </c>
       <c r="AE2" t="n">
-        <v>1404797.491975036</v>
+        <v>1549289.911913994</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.055219367125717e-06</v>
+        <v>1.902810225977995e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>21</v>
+        <v>20.9375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1270725.590986602</v>
+        <v>1401427.85716297</v>
       </c>
     </row>
     <row r="3">
@@ -23227,28 +23227,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>756.7493175243045</v>
+        <v>833.6145779220874</v>
       </c>
       <c r="AB3" t="n">
-        <v>1035.417801660418</v>
+        <v>1140.588241992625</v>
       </c>
       <c r="AC3" t="n">
-        <v>936.5989798879589</v>
+        <v>1031.7321010025</v>
       </c>
       <c r="AD3" t="n">
-        <v>756749.3175243045</v>
+        <v>833614.5779220874</v>
       </c>
       <c r="AE3" t="n">
-        <v>1035417.801660418</v>
+        <v>1140588.241992625</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.292550659248864e-06</v>
+        <v>2.330774707739342e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.09490740740741</v>
       </c>
       <c r="AH3" t="n">
-        <v>936598.9798879588</v>
+        <v>1031732.1010025</v>
       </c>
     </row>
     <row r="4">
@@ -23333,28 +23333,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>682.4115826169701</v>
+        <v>759.1915021601814</v>
       </c>
       <c r="AB4" t="n">
-        <v>933.7056332107982</v>
+        <v>1038.759306420807</v>
       </c>
       <c r="AC4" t="n">
-        <v>844.5940780412456</v>
+        <v>939.6215761238476</v>
       </c>
       <c r="AD4" t="n">
-        <v>682411.5826169702</v>
+        <v>759191.5021601814</v>
       </c>
       <c r="AE4" t="n">
-        <v>933705.6332107981</v>
+        <v>1038759.306420807</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.378686340559967e-06</v>
+        <v>2.486097724285932e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.02623456790123</v>
       </c>
       <c r="AH4" t="n">
-        <v>844594.0780412456</v>
+        <v>939621.5761238476</v>
       </c>
     </row>
     <row r="5">
@@ -23439,28 +23439,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>639.8433999241852</v>
+        <v>716.7085708134169</v>
       </c>
       <c r="AB5" t="n">
-        <v>875.4619676748504</v>
+        <v>980.6322855375086</v>
       </c>
       <c r="AC5" t="n">
-        <v>791.9091061985507</v>
+        <v>887.0421165318651</v>
       </c>
       <c r="AD5" t="n">
-        <v>639843.3999241851</v>
+        <v>716708.570813417</v>
       </c>
       <c r="AE5" t="n">
-        <v>875461.9676748504</v>
+        <v>980632.2855375085</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.423415042091863e-06</v>
+        <v>2.566754157745297e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.52469135802469</v>
       </c>
       <c r="AH5" t="n">
-        <v>791909.1061985507</v>
+        <v>887042.1165318651</v>
       </c>
     </row>
     <row r="6">
@@ -23545,28 +23545,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>617.8519172754593</v>
+        <v>694.546495964099</v>
       </c>
       <c r="AB6" t="n">
-        <v>845.3722509191223</v>
+        <v>950.3091570069336</v>
       </c>
       <c r="AC6" t="n">
-        <v>764.6911097788065</v>
+        <v>859.6129848294698</v>
       </c>
       <c r="AD6" t="n">
-        <v>617851.9172754593</v>
+        <v>694546.495964099</v>
       </c>
       <c r="AE6" t="n">
-        <v>845372.2509191222</v>
+        <v>950309.1570069336</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.451764219119121e-06</v>
+        <v>2.617874432473064e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.21990740740741</v>
       </c>
       <c r="AH6" t="n">
-        <v>764691.1097788066</v>
+        <v>859612.9848294698</v>
       </c>
     </row>
     <row r="7">
@@ -23651,28 +23651,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>601.6672818896219</v>
+        <v>668.9243959262508</v>
       </c>
       <c r="AB7" t="n">
-        <v>823.2277187684989</v>
+        <v>915.2518693678733</v>
       </c>
       <c r="AC7" t="n">
-        <v>744.6600206965925</v>
+        <v>827.9015155194692</v>
       </c>
       <c r="AD7" t="n">
-        <v>601667.2818896219</v>
+        <v>668924.3959262507</v>
       </c>
       <c r="AE7" t="n">
-        <v>823227.7187684989</v>
+        <v>915251.8693678733</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.46928916491779e-06</v>
+        <v>2.649476056850229e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.03858024691358</v>
       </c>
       <c r="AH7" t="n">
-        <v>744660.0206965925</v>
+        <v>827901.5155194692</v>
       </c>
     </row>
     <row r="8">
@@ -23757,28 +23757,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>577.4893832794025</v>
+        <v>654.2692133140629</v>
       </c>
       <c r="AB8" t="n">
-        <v>790.1464512363909</v>
+        <v>895.2000019768516</v>
       </c>
       <c r="AC8" t="n">
-        <v>714.7359829078985</v>
+        <v>809.7633702092739</v>
       </c>
       <c r="AD8" t="n">
-        <v>577489.3832794025</v>
+        <v>654269.2133140629</v>
       </c>
       <c r="AE8" t="n">
-        <v>790146.451236391</v>
+        <v>895200.0019768516</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.483377846834367e-06</v>
+        <v>2.674881284290695e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.89583333333333</v>
       </c>
       <c r="AH8" t="n">
-        <v>714735.9829078985</v>
+        <v>809763.370209274</v>
       </c>
     </row>
     <row r="9">
@@ -23863,28 +23863,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>565.8752098818719</v>
+        <v>642.6550399165324</v>
       </c>
       <c r="AB9" t="n">
-        <v>774.2554268127215</v>
+        <v>879.3089775531818</v>
       </c>
       <c r="AC9" t="n">
-        <v>700.3615755520309</v>
+        <v>795.3889628534064</v>
       </c>
       <c r="AD9" t="n">
-        <v>565875.2098818719</v>
+        <v>642655.0399165323</v>
       </c>
       <c r="AE9" t="n">
-        <v>774255.4268127214</v>
+        <v>879308.9775531818</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.492655759316015e-06</v>
+        <v>2.691611556019783e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.80324074074074</v>
       </c>
       <c r="AH9" t="n">
-        <v>700361.5755520309</v>
+        <v>795388.9628534064</v>
       </c>
     </row>
     <row r="10">
@@ -23969,28 +23969,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>553.5212952427495</v>
+        <v>630.3011252774098</v>
       </c>
       <c r="AB10" t="n">
-        <v>757.3522557872253</v>
+        <v>862.4058065276861</v>
       </c>
       <c r="AC10" t="n">
-        <v>685.0716194454589</v>
+        <v>780.0990067468342</v>
       </c>
       <c r="AD10" t="n">
-        <v>553521.2952427495</v>
+        <v>630301.1252774098</v>
       </c>
       <c r="AE10" t="n">
-        <v>757352.2557872253</v>
+        <v>862405.8065276861</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.50073097943893e-06</v>
+        <v>2.706173088821025e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.72222222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>685071.6194454589</v>
+        <v>780099.0067468343</v>
       </c>
     </row>
     <row r="11">
@@ -24075,28 +24075,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>550.9556004031066</v>
+        <v>627.7354304377669</v>
       </c>
       <c r="AB11" t="n">
-        <v>753.8417589171582</v>
+        <v>858.8953096576189</v>
       </c>
       <c r="AC11" t="n">
-        <v>681.8961594696575</v>
+        <v>776.9235467710331</v>
       </c>
       <c r="AD11" t="n">
-        <v>550955.6004031065</v>
+        <v>627735.4304377669</v>
       </c>
       <c r="AE11" t="n">
-        <v>753841.7589171582</v>
+        <v>858895.3096576189</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.502449111379977e-06</v>
+        <v>2.709271287289375e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.70679012345679</v>
       </c>
       <c r="AH11" t="n">
-        <v>681896.1594696575</v>
+        <v>776923.5467710331</v>
       </c>
     </row>
     <row r="12">
@@ -24181,28 +24181,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>553.5770079247615</v>
+        <v>630.3568379594218</v>
       </c>
       <c r="AB12" t="n">
-        <v>757.4284843366241</v>
+        <v>862.4820350770848</v>
       </c>
       <c r="AC12" t="n">
-        <v>685.1405728490905</v>
+        <v>780.1679601504661</v>
       </c>
       <c r="AD12" t="n">
-        <v>553577.0079247615</v>
+        <v>630356.8379594218</v>
       </c>
       <c r="AE12" t="n">
-        <v>757428.4843366242</v>
+        <v>862482.0350770848</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.502162756056469e-06</v>
+        <v>2.708754920877983e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.71064814814815</v>
       </c>
       <c r="AH12" t="n">
-        <v>685140.5728490906</v>
+        <v>780167.9601504661</v>
       </c>
     </row>
   </sheetData>
@@ -24478,28 +24478,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>793.6294327418066</v>
+        <v>876.8950067456437</v>
       </c>
       <c r="AB2" t="n">
-        <v>1085.878802336858</v>
+        <v>1199.806434106776</v>
       </c>
       <c r="AC2" t="n">
-        <v>982.2440534822982</v>
+        <v>1085.298591974531</v>
       </c>
       <c r="AD2" t="n">
-        <v>793629.4327418066</v>
+        <v>876895.0067456438</v>
       </c>
       <c r="AE2" t="n">
-        <v>1085878.802336858</v>
+        <v>1199806.434106776</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.210390303087936e-06</v>
+        <v>2.258201413091694e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.01620370370371</v>
       </c>
       <c r="AH2" t="n">
-        <v>982244.0534822983</v>
+        <v>1085298.591974531</v>
       </c>
     </row>
     <row r="3">
@@ -24584,28 +24584,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>617.4102959217815</v>
+        <v>691.3388085715709</v>
       </c>
       <c r="AB3" t="n">
-        <v>844.7680051000613</v>
+        <v>945.9202576032964</v>
       </c>
       <c r="AC3" t="n">
-        <v>764.1445323326525</v>
+        <v>855.6429558250569</v>
       </c>
       <c r="AD3" t="n">
-        <v>617410.2959217816</v>
+        <v>691338.8085715709</v>
       </c>
       <c r="AE3" t="n">
-        <v>844768.0051000613</v>
+        <v>945920.2576032963</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.412867738579111e-06</v>
+        <v>2.635959587276386e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.28858024691358</v>
       </c>
       <c r="AH3" t="n">
-        <v>764144.5323326525</v>
+        <v>855642.9558250569</v>
       </c>
     </row>
     <row r="4">
@@ -24690,28 +24690,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>561.3134285323997</v>
+        <v>635.1566003276175</v>
       </c>
       <c r="AB4" t="n">
-        <v>768.0137963187839</v>
+        <v>869.0492816998213</v>
       </c>
       <c r="AC4" t="n">
-        <v>694.7156375122515</v>
+        <v>786.1084379727172</v>
       </c>
       <c r="AD4" t="n">
-        <v>561313.4285323997</v>
+        <v>635156.6003276175</v>
       </c>
       <c r="AE4" t="n">
-        <v>768013.7963187839</v>
+        <v>869049.2816998214</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.486544707592547e-06</v>
+        <v>2.773417261147362e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.48225308641975</v>
       </c>
       <c r="AH4" t="n">
-        <v>694715.6375122515</v>
+        <v>786108.4379727172</v>
       </c>
     </row>
     <row r="5">
@@ -24796,28 +24796,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>535.6277342879739</v>
+        <v>600.3898672928588</v>
       </c>
       <c r="AB5" t="n">
-        <v>732.8694962807058</v>
+        <v>821.479903761653</v>
       </c>
       <c r="AC5" t="n">
-        <v>662.9254601444728</v>
+        <v>743.0790147009263</v>
       </c>
       <c r="AD5" t="n">
-        <v>535627.734287974</v>
+        <v>600389.8672928588</v>
       </c>
       <c r="AE5" t="n">
-        <v>732869.4962807058</v>
+        <v>821479.903761653</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.521981241676742e-06</v>
+        <v>2.839530506717694e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.12345679012346</v>
       </c>
       <c r="AH5" t="n">
-        <v>662925.4601444728</v>
+        <v>743079.0147009264</v>
       </c>
     </row>
     <row r="6">
@@ -24902,28 +24902,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>505.9236773542434</v>
+        <v>579.8521004954816</v>
       </c>
       <c r="AB6" t="n">
-        <v>692.2270951334706</v>
+        <v>793.3792251671573</v>
       </c>
       <c r="AC6" t="n">
-        <v>626.1619127207614</v>
+        <v>717.6602254319391</v>
       </c>
       <c r="AD6" t="n">
-        <v>505923.6773542434</v>
+        <v>579852.1004954816</v>
       </c>
       <c r="AE6" t="n">
-        <v>692227.0951334706</v>
+        <v>793379.2251671572</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.546023199986389e-06</v>
+        <v>2.884385116086117e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.88811728395062</v>
       </c>
       <c r="AH6" t="n">
-        <v>626161.9127207614</v>
+        <v>717660.2254319391</v>
       </c>
     </row>
     <row r="7">
@@ -25008,28 +25008,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>492.5628340698229</v>
+        <v>566.4912572110612</v>
       </c>
       <c r="AB7" t="n">
-        <v>673.9461999129213</v>
+        <v>775.098329946608</v>
       </c>
       <c r="AC7" t="n">
-        <v>609.6257204826637</v>
+        <v>701.1240331938416</v>
       </c>
       <c r="AD7" t="n">
-        <v>492562.8340698229</v>
+        <v>566491.2572110612</v>
       </c>
       <c r="AE7" t="n">
-        <v>673946.1999129213</v>
+        <v>775098.329946608</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.558431952662336e-06</v>
+        <v>2.907535882211756e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.76851851851852</v>
       </c>
       <c r="AH7" t="n">
-        <v>609625.7204826637</v>
+        <v>701124.0331938416</v>
       </c>
     </row>
     <row r="8">
@@ -25114,28 +25114,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>494.6960146603411</v>
+        <v>568.6244378015795</v>
       </c>
       <c r="AB8" t="n">
-        <v>676.8649117061542</v>
+        <v>778.0170417398409</v>
       </c>
       <c r="AC8" t="n">
-        <v>612.2658745187882</v>
+        <v>703.7641872299661</v>
       </c>
       <c r="AD8" t="n">
-        <v>494696.0146603411</v>
+        <v>568624.4378015795</v>
       </c>
       <c r="AE8" t="n">
-        <v>676864.9117061542</v>
+        <v>778017.0417398409</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.559028527310219e-06</v>
+        <v>2.90864889981395e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.76466049382716</v>
       </c>
       <c r="AH8" t="n">
-        <v>612265.8745187882</v>
+        <v>703764.187229966</v>
       </c>
     </row>
   </sheetData>
@@ -47144,28 +47144,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>634.7790044722415</v>
+        <v>715.4804082906759</v>
       </c>
       <c r="AB2" t="n">
-        <v>868.5326383921423</v>
+        <v>978.9518593911876</v>
       </c>
       <c r="AC2" t="n">
-        <v>785.6411023772094</v>
+        <v>885.5220678984559</v>
       </c>
       <c r="AD2" t="n">
-        <v>634779.0044722415</v>
+        <v>715480.4082906758</v>
       </c>
       <c r="AE2" t="n">
-        <v>868532.6383921423</v>
+        <v>978951.8593911876</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.336824853620126e-06</v>
+        <v>2.570763767800014e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>18</v>
+        <v>17.80864197530864</v>
       </c>
       <c r="AH2" t="n">
-        <v>785641.1023772095</v>
+        <v>885522.0678984559</v>
       </c>
     </row>
     <row r="3">
@@ -47250,28 +47250,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>514.3965882585768</v>
+        <v>586.1311694305183</v>
       </c>
       <c r="AB3" t="n">
-        <v>703.8201056312274</v>
+        <v>801.9705242970454</v>
       </c>
       <c r="AC3" t="n">
-        <v>636.6485025675047</v>
+        <v>725.4315830308348</v>
       </c>
       <c r="AD3" t="n">
-        <v>514396.5882585768</v>
+        <v>586131.1694305183</v>
       </c>
       <c r="AE3" t="n">
-        <v>703820.1056312274</v>
+        <v>801970.5242970453</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.512706620438396e-06</v>
+        <v>2.908990927721999e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.74074074074074</v>
       </c>
       <c r="AH3" t="n">
-        <v>636648.5025675046</v>
+        <v>725431.5830308348</v>
       </c>
     </row>
     <row r="4">
@@ -47356,28 +47356,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>477.2847069728795</v>
+        <v>540.0525550068795</v>
       </c>
       <c r="AB4" t="n">
-        <v>653.0419923954862</v>
+        <v>738.9237311976253</v>
       </c>
       <c r="AC4" t="n">
-        <v>590.7165811914531</v>
+        <v>668.4018873780934</v>
       </c>
       <c r="AD4" t="n">
-        <v>477284.7069728795</v>
+        <v>540052.5550068795</v>
       </c>
       <c r="AE4" t="n">
-        <v>653041.9923954862</v>
+        <v>738923.7311976253</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.57491322428149e-06</v>
+        <v>3.028616533757564e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.11574074074074</v>
       </c>
       <c r="AH4" t="n">
-        <v>590716.581191453</v>
+        <v>668401.8873780934</v>
       </c>
     </row>
     <row r="5">
@@ -47462,28 +47462,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>448.346103804997</v>
+        <v>519.995344122367</v>
       </c>
       <c r="AB5" t="n">
-        <v>613.4469188601212</v>
+        <v>711.4805704037415</v>
       </c>
       <c r="AC5" t="n">
-        <v>554.9004059022686</v>
+        <v>643.5778633336598</v>
       </c>
       <c r="AD5" t="n">
-        <v>448346.1038049971</v>
+        <v>519995.344122367</v>
       </c>
       <c r="AE5" t="n">
-        <v>613446.9188601212</v>
+        <v>711480.5704037414</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.600647503847531e-06</v>
+        <v>3.078104507682991e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>15</v>
+        <v>14.87654320987655</v>
       </c>
       <c r="AH5" t="n">
-        <v>554900.4059022686</v>
+        <v>643577.8633336598</v>
       </c>
     </row>
     <row r="6">
@@ -47568,28 +47568,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>450.3270931783761</v>
+        <v>521.9763334957461</v>
       </c>
       <c r="AB6" t="n">
-        <v>616.1573959158616</v>
+        <v>714.1910474594819</v>
       </c>
       <c r="AC6" t="n">
-        <v>557.3521988319876</v>
+        <v>646.0296562633787</v>
       </c>
       <c r="AD6" t="n">
-        <v>450327.0931783761</v>
+        <v>521976.3334957461</v>
       </c>
       <c r="AE6" t="n">
-        <v>616157.3959158616</v>
+        <v>714191.0474594819</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.601573197357101e-06</v>
+        <v>3.079884650629949e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>15</v>
+        <v>14.86496913580247</v>
       </c>
       <c r="AH6" t="n">
-        <v>557352.1988319876</v>
+        <v>646029.6562633787</v>
       </c>
     </row>
   </sheetData>
@@ -47865,28 +47865,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>389.1909704084662</v>
+        <v>464.6388894502467</v>
       </c>
       <c r="AB2" t="n">
-        <v>532.5082556066885</v>
+        <v>635.7394269669251</v>
       </c>
       <c r="AC2" t="n">
-        <v>481.6864150716162</v>
+        <v>575.0653483230907</v>
       </c>
       <c r="AD2" t="n">
-        <v>389190.9704084662</v>
+        <v>464638.8894502466</v>
       </c>
       <c r="AE2" t="n">
-        <v>532508.2556066886</v>
+        <v>635739.426966925</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.607235175762072e-06</v>
+        <v>3.315082182797178e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>16</v>
+        <v>15.89891975308642</v>
       </c>
       <c r="AH2" t="n">
-        <v>481686.4150716162</v>
+        <v>575065.3483230907</v>
       </c>
     </row>
     <row r="3">
@@ -47971,28 +47971,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>369.1173060358096</v>
+        <v>436.1632478360385</v>
       </c>
       <c r="AB3" t="n">
-        <v>505.0425824244494</v>
+        <v>596.7777978537196</v>
       </c>
       <c r="AC3" t="n">
-        <v>456.8420271895756</v>
+        <v>539.8221624094597</v>
       </c>
       <c r="AD3" t="n">
-        <v>369117.3060358096</v>
+        <v>436163.2478360385</v>
       </c>
       <c r="AE3" t="n">
-        <v>505042.5824244494</v>
+        <v>596777.7978537196</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.660423300474084e-06</v>
+        <v>3.424787972732729e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>15.38966049382716</v>
       </c>
       <c r="AH3" t="n">
-        <v>456842.0271895755</v>
+        <v>539822.1624094597</v>
       </c>
     </row>
   </sheetData>
@@ -48268,28 +48268,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1310.551139052235</v>
+        <v>1419.563714232847</v>
       </c>
       <c r="AB2" t="n">
-        <v>1793.153885886973</v>
+        <v>1942.309700544481</v>
       </c>
       <c r="AC2" t="n">
-        <v>1622.017795725205</v>
+        <v>1756.938388773301</v>
       </c>
       <c r="AD2" t="n">
-        <v>1310551.139052235</v>
+        <v>1419563.714232847</v>
       </c>
       <c r="AE2" t="n">
-        <v>1793153.885886973</v>
+        <v>1942309.700544481</v>
       </c>
       <c r="AF2" t="n">
-        <v>9.260619219821044e-07</v>
+        <v>1.627054265839549e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>24</v>
+        <v>23.07484567901234</v>
       </c>
       <c r="AH2" t="n">
-        <v>1622017.795725205</v>
+        <v>1756938.388773301</v>
       </c>
     </row>
     <row r="3">
@@ -48374,28 +48374,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>887.3984590956763</v>
+        <v>986.3300370884068</v>
       </c>
       <c r="AB3" t="n">
-        <v>1214.177720991704</v>
+        <v>1349.540270554544</v>
       </c>
       <c r="AC3" t="n">
-        <v>1098.29830340939</v>
+        <v>1220.742041224484</v>
       </c>
       <c r="AD3" t="n">
-        <v>887398.4590956763</v>
+        <v>986330.0370884069</v>
       </c>
       <c r="AE3" t="n">
-        <v>1214177.720991704</v>
+        <v>1349540.270554544</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.189677706568349e-06</v>
+        <v>2.090216800301233e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.96296296296297</v>
       </c>
       <c r="AH3" t="n">
-        <v>1098298.303409389</v>
+        <v>1220742.041224484</v>
       </c>
     </row>
     <row r="4">
@@ -48480,28 +48480,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>789.0348912608985</v>
+        <v>878.1415841380131</v>
       </c>
       <c r="AB4" t="n">
-        <v>1079.592347985814</v>
+        <v>1201.512056290129</v>
       </c>
       <c r="AC4" t="n">
-        <v>976.5575695114245</v>
+        <v>1086.841431970561</v>
       </c>
       <c r="AD4" t="n">
-        <v>789034.8912608984</v>
+        <v>878141.5841380131</v>
       </c>
       <c r="AE4" t="n">
-        <v>1079592.347985814</v>
+        <v>1201512.056290129</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.287612715424932e-06</v>
+        <v>2.262284747543984e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.59722222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>976557.5695114245</v>
+        <v>1086841.43197056</v>
       </c>
     </row>
     <row r="5">
@@ -48586,28 +48586,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>736.3118388707603</v>
+        <v>825.3331908933035</v>
       </c>
       <c r="AB5" t="n">
-        <v>1007.454341728715</v>
+        <v>1129.257282910832</v>
       </c>
       <c r="AC5" t="n">
-        <v>911.3043133251754</v>
+        <v>1021.482552752372</v>
       </c>
       <c r="AD5" t="n">
-        <v>736311.8388707603</v>
+        <v>825333.1908933035</v>
       </c>
       <c r="AE5" t="n">
-        <v>1007454.341728715</v>
+        <v>1129257.282910832</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.339294481976512e-06</v>
+        <v>2.353087572644373e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.95679012345679</v>
       </c>
       <c r="AH5" t="n">
-        <v>911304.3133251753</v>
+        <v>1021482.552752372</v>
       </c>
     </row>
     <row r="6">
@@ -48692,28 +48692,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>709.5721319453095</v>
+        <v>788.8539397068087</v>
       </c>
       <c r="AB6" t="n">
-        <v>970.867895040701</v>
+        <v>1079.34476208649</v>
       </c>
       <c r="AC6" t="n">
-        <v>878.2096257596646</v>
+        <v>976.3336128628422</v>
       </c>
       <c r="AD6" t="n">
-        <v>709572.1319453095</v>
+        <v>788853.9397068087</v>
       </c>
       <c r="AE6" t="n">
-        <v>970867.895040701</v>
+        <v>1079344.76208649</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.372087199874191e-06</v>
+        <v>2.410703084390815e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.57484567901235</v>
       </c>
       <c r="AH6" t="n">
-        <v>878209.6257596646</v>
+        <v>976333.6128628422</v>
       </c>
     </row>
     <row r="7">
@@ -48798,28 +48798,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>692.0950872053451</v>
+        <v>771.2063027662521</v>
       </c>
       <c r="AB7" t="n">
-        <v>946.9550313946849</v>
+        <v>1055.198486665626</v>
       </c>
       <c r="AC7" t="n">
-        <v>856.5789722581093</v>
+        <v>954.4918240786358</v>
       </c>
       <c r="AD7" t="n">
-        <v>692095.087205345</v>
+        <v>771206.3027662521</v>
       </c>
       <c r="AE7" t="n">
-        <v>946955.0313946848</v>
+        <v>1055198.486665626</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.391696358887331e-06</v>
+        <v>2.445155603239194e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.35493827160494</v>
       </c>
       <c r="AH7" t="n">
-        <v>856578.9722581093</v>
+        <v>954491.8240786358</v>
       </c>
     </row>
     <row r="8">
@@ -48904,28 +48904,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>676.6830820402345</v>
+        <v>746.0547533400971</v>
       </c>
       <c r="AB8" t="n">
-        <v>925.8676459980994</v>
+        <v>1020.785027132713</v>
       </c>
       <c r="AC8" t="n">
-        <v>837.5041373274428</v>
+        <v>923.3627368239497</v>
       </c>
       <c r="AD8" t="n">
-        <v>676683.0820402345</v>
+        <v>746054.7533400971</v>
       </c>
       <c r="AE8" t="n">
-        <v>925867.6459980995</v>
+        <v>1020785.027132713</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.408591255777182e-06</v>
+        <v>2.47483927060856e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.17361111111111</v>
       </c>
       <c r="AH8" t="n">
-        <v>837504.1373274428</v>
+        <v>923362.7368239497</v>
       </c>
     </row>
     <row r="9">
@@ -49010,28 +49010,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>664.2712249014135</v>
+        <v>733.6428962012761</v>
       </c>
       <c r="AB9" t="n">
-        <v>908.8851954882733</v>
+        <v>1003.802576622887</v>
       </c>
       <c r="AC9" t="n">
-        <v>822.1424680592553</v>
+        <v>908.0010675557622</v>
       </c>
       <c r="AD9" t="n">
-        <v>664271.2249014134</v>
+        <v>733642.8962012761</v>
       </c>
       <c r="AE9" t="n">
-        <v>908885.1954882733</v>
+        <v>1003802.576622887</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.420057628420459e-06</v>
+        <v>2.4949852350199e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.05015432098765</v>
       </c>
       <c r="AH9" t="n">
-        <v>822142.4680592553</v>
+        <v>908001.0675557622</v>
       </c>
     </row>
     <row r="10">
@@ -49116,28 +49116,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>644.6190556870924</v>
+        <v>723.81552259402</v>
       </c>
       <c r="AB10" t="n">
-        <v>881.996230576723</v>
+        <v>990.3563305003138</v>
       </c>
       <c r="AC10" t="n">
-        <v>797.8197482199643</v>
+        <v>895.8381122912028</v>
       </c>
       <c r="AD10" t="n">
-        <v>644619.0556870925</v>
+        <v>723815.52259402</v>
       </c>
       <c r="AE10" t="n">
-        <v>881996.230576723</v>
+        <v>990356.3305003138</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.428975918254118e-06</v>
+        <v>2.510654318450943e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.9537037037037</v>
       </c>
       <c r="AH10" t="n">
-        <v>797819.7482199642</v>
+        <v>895838.1122912029</v>
       </c>
     </row>
     <row r="11">
@@ -49222,28 +49222,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>633.2400767181332</v>
+        <v>712.4365436250607</v>
       </c>
       <c r="AB11" t="n">
-        <v>866.4270095462705</v>
+        <v>974.7871094698614</v>
       </c>
       <c r="AC11" t="n">
-        <v>783.7364317931192</v>
+        <v>881.7547958643579</v>
       </c>
       <c r="AD11" t="n">
-        <v>633240.0767181332</v>
+        <v>712436.5436250607</v>
       </c>
       <c r="AE11" t="n">
-        <v>866427.0095462705</v>
+        <v>974787.1094698615</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.437783421878664e-06</v>
+        <v>2.526128754882841e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.86496913580247</v>
       </c>
       <c r="AH11" t="n">
-        <v>783736.4317931192</v>
+        <v>881754.7958643578</v>
       </c>
     </row>
     <row r="12">
@@ -49328,28 +49328,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>624.5788592703079</v>
+        <v>703.7753261772353</v>
       </c>
       <c r="AB12" t="n">
-        <v>854.5763497282099</v>
+        <v>962.9364496518006</v>
       </c>
       <c r="AC12" t="n">
-        <v>773.0167823155887</v>
+        <v>871.0351463868274</v>
       </c>
       <c r="AD12" t="n">
-        <v>624578.8592703079</v>
+        <v>703775.3261772353</v>
       </c>
       <c r="AE12" t="n">
-        <v>854576.3497282099</v>
+        <v>962936.4496518006</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.44177172540676e-06</v>
+        <v>2.533136046852003e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.82253086419753</v>
       </c>
       <c r="AH12" t="n">
-        <v>773016.7823155887</v>
+        <v>871035.1463868273</v>
       </c>
     </row>
     <row r="13">
@@ -49434,28 +49434,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>615.3063814468986</v>
+        <v>694.502848353826</v>
       </c>
       <c r="AB13" t="n">
-        <v>841.8893364973706</v>
+        <v>950.2494364209613</v>
       </c>
       <c r="AC13" t="n">
-        <v>761.5405998211658</v>
+        <v>859.5589638924047</v>
       </c>
       <c r="AD13" t="n">
-        <v>615306.3814468987</v>
+        <v>694502.8483538261</v>
       </c>
       <c r="AE13" t="n">
-        <v>841889.3364973705</v>
+        <v>950249.4364209613</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.449028222103713e-06</v>
+        <v>2.545885425295895e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.74922839506173</v>
       </c>
       <c r="AH13" t="n">
-        <v>761540.5998211658</v>
+        <v>859558.9638924047</v>
       </c>
     </row>
     <row r="14">
@@ -49540,28 +49540,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>607.318712829099</v>
+        <v>686.5151797360264</v>
       </c>
       <c r="AB14" t="n">
-        <v>830.9602559034283</v>
+        <v>939.3203558270191</v>
       </c>
       <c r="AC14" t="n">
-        <v>751.6545753400484</v>
+        <v>849.6729394112872</v>
       </c>
       <c r="AD14" t="n">
-        <v>607318.712829099</v>
+        <v>686515.1797360264</v>
       </c>
       <c r="AE14" t="n">
-        <v>830960.2559034283</v>
+        <v>939320.3558270191</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.453071918736366e-06</v>
+        <v>2.552990040764629e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.70679012345679</v>
       </c>
       <c r="AH14" t="n">
-        <v>751654.5753400484</v>
+        <v>849672.9394112872</v>
       </c>
     </row>
     <row r="15">
@@ -49646,28 +49646,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>604.1542645678882</v>
+        <v>683.3507314748157</v>
       </c>
       <c r="AB15" t="n">
-        <v>826.6305181868353</v>
+        <v>934.990618110426</v>
       </c>
       <c r="AC15" t="n">
-        <v>747.7380617143018</v>
+        <v>845.7564257855406</v>
       </c>
       <c r="AD15" t="n">
-        <v>604154.2645678881</v>
+        <v>683350.7314748156</v>
       </c>
       <c r="AE15" t="n">
-        <v>826630.5181868352</v>
+        <v>934990.618110426</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.453847422200162e-06</v>
+        <v>2.554352569758632e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.69907407407408</v>
       </c>
       <c r="AH15" t="n">
-        <v>747738.0617143018</v>
+        <v>845756.4257855406</v>
       </c>
     </row>
     <row r="16">
@@ -49752,28 +49752,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>606.4648450217294</v>
+        <v>685.6613119286569</v>
       </c>
       <c r="AB16" t="n">
-        <v>829.791956299396</v>
+        <v>938.1520562229869</v>
       </c>
       <c r="AC16" t="n">
-        <v>750.5977766105061</v>
+        <v>848.616140681745</v>
       </c>
       <c r="AD16" t="n">
-        <v>606464.8450217294</v>
+        <v>685661.3119286569</v>
       </c>
       <c r="AE16" t="n">
-        <v>829791.956299396</v>
+        <v>938152.0562229869</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.453570456677378e-06</v>
+        <v>2.553865952260774e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14.70293209876543</v>
       </c>
       <c r="AH16" t="n">
-        <v>750597.7766105061</v>
+        <v>848616.140681745</v>
       </c>
     </row>
   </sheetData>
@@ -50049,28 +50049,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1751.514316005657</v>
+        <v>1884.781852701039</v>
       </c>
       <c r="AB2" t="n">
-        <v>2396.499158517023</v>
+        <v>2578.841681572419</v>
       </c>
       <c r="AC2" t="n">
-        <v>2167.780642335852</v>
+        <v>2332.72065091018</v>
       </c>
       <c r="AD2" t="n">
-        <v>1751514.316005657</v>
+        <v>1884781.852701039</v>
       </c>
       <c r="AE2" t="n">
-        <v>2396499.158517023</v>
+        <v>2578841.68157242</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.817823641690681e-07</v>
+        <v>1.336760719029667e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>27</v>
+        <v>26.3425925925926</v>
       </c>
       <c r="AH2" t="n">
-        <v>2167780.642335852</v>
+        <v>2332720.65091018</v>
       </c>
     </row>
     <row r="3">
@@ -50155,28 +50155,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>1091.528026249897</v>
+        <v>1193.93650177346</v>
       </c>
       <c r="AB3" t="n">
-        <v>1493.476800333031</v>
+        <v>1633.59659448745</v>
       </c>
       <c r="AC3" t="n">
-        <v>1350.9414706171</v>
+        <v>1477.688428276788</v>
       </c>
       <c r="AD3" t="n">
-        <v>1091528.026249897</v>
+        <v>1193936.50177346</v>
       </c>
       <c r="AE3" t="n">
-        <v>1493476.800333031</v>
+        <v>1633596.59448745</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.071681314039491e-06</v>
+        <v>1.832455616274656e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>20</v>
+        <v>19.21682098765432</v>
       </c>
       <c r="AH3" t="n">
-        <v>1350941.4706171</v>
+        <v>1477688.428276788</v>
       </c>
     </row>
     <row r="4">
@@ -50261,28 +50261,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>941.1240938784987</v>
+        <v>1033.274662629646</v>
       </c>
       <c r="AB4" t="n">
-        <v>1287.687504709288</v>
+        <v>1413.77197827078</v>
       </c>
       <c r="AC4" t="n">
-        <v>1164.792416540596</v>
+        <v>1278.84356490605</v>
       </c>
       <c r="AD4" t="n">
-        <v>941124.0938784987</v>
+        <v>1033274.662629646</v>
       </c>
       <c r="AE4" t="n">
-        <v>1287687.504709288</v>
+        <v>1413771.97827078</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.183402636462395e-06</v>
+        <v>2.023486627126022e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>18</v>
+        <v>17.40354938271605</v>
       </c>
       <c r="AH4" t="n">
-        <v>1164792.416540596</v>
+        <v>1278843.56490605</v>
       </c>
     </row>
     <row r="5">
@@ -50367,28 +50367,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>872.7470643724899</v>
+        <v>964.9828844696586</v>
       </c>
       <c r="AB5" t="n">
-        <v>1194.131036357524</v>
+        <v>1320.332154571666</v>
       </c>
       <c r="AC5" t="n">
-        <v>1080.164846220997</v>
+        <v>1194.321506837163</v>
       </c>
       <c r="AD5" t="n">
-        <v>872747.0643724899</v>
+        <v>964982.8844696586</v>
       </c>
       <c r="AE5" t="n">
-        <v>1194131.036357524</v>
+        <v>1320332.154571666</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.243026486030663e-06</v>
+        <v>2.125436765263133e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>16.56635802469136</v>
       </c>
       <c r="AH5" t="n">
-        <v>1080164.846220997</v>
+        <v>1194321.506837163</v>
       </c>
     </row>
     <row r="6">
@@ -50473,28 +50473,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>838.0414071737982</v>
+        <v>920.019410007102</v>
       </c>
       <c r="AB6" t="n">
-        <v>1146.645225072739</v>
+        <v>1258.811145163502</v>
       </c>
       <c r="AC6" t="n">
-        <v>1037.211014118477</v>
+        <v>1138.671976221635</v>
       </c>
       <c r="AD6" t="n">
-        <v>838041.4071737982</v>
+        <v>920019.4100071021</v>
       </c>
       <c r="AE6" t="n">
-        <v>1146645.225072739</v>
+        <v>1258811.145163502</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.280284719691049e-06</v>
+        <v>2.18914419267558e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>17</v>
+        <v>16.0841049382716</v>
       </c>
       <c r="AH6" t="n">
-        <v>1037211.014118477</v>
+        <v>1138671.976221635</v>
       </c>
     </row>
     <row r="7">
@@ -50579,28 +50579,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>804.2147706668512</v>
+        <v>886.2780248461759</v>
       </c>
       <c r="AB7" t="n">
-        <v>1100.362128678054</v>
+        <v>1212.644693421467</v>
       </c>
       <c r="AC7" t="n">
-        <v>995.3451114849674</v>
+        <v>1096.911585838838</v>
       </c>
       <c r="AD7" t="n">
-        <v>804214.7706668512</v>
+        <v>886278.0248461759</v>
       </c>
       <c r="AE7" t="n">
-        <v>1100362.128678054</v>
+        <v>1212644.693421467</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.305586156302829e-06</v>
+        <v>2.232406829629019e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.77546296296297</v>
       </c>
       <c r="AH7" t="n">
-        <v>995345.1114849674</v>
+        <v>1096911.585838838</v>
       </c>
     </row>
     <row r="8">
@@ -50685,28 +50685,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>787.3266073494498</v>
+        <v>869.3898615287743</v>
       </c>
       <c r="AB8" t="n">
-        <v>1077.254998574003</v>
+        <v>1189.537563317416</v>
       </c>
       <c r="AC8" t="n">
-        <v>974.443293446986</v>
+        <v>1076.009767800857</v>
       </c>
       <c r="AD8" t="n">
-        <v>787326.6073494498</v>
+        <v>869389.8615287743</v>
       </c>
       <c r="AE8" t="n">
-        <v>1077254.998574003</v>
+        <v>1189537.563317416</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.323628108992242e-06</v>
+        <v>2.263256558089488e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.55941358024691</v>
       </c>
       <c r="AH8" t="n">
-        <v>974443.293446986</v>
+        <v>1076009.767800857</v>
       </c>
     </row>
     <row r="9">
@@ -50791,28 +50791,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>772.4422987131209</v>
+        <v>854.3349606918532</v>
       </c>
       <c r="AB9" t="n">
-        <v>1056.889630848425</v>
+        <v>1168.938783816991</v>
       </c>
       <c r="AC9" t="n">
-        <v>956.0215678341638</v>
+        <v>1057.376906905384</v>
       </c>
       <c r="AD9" t="n">
-        <v>772442.2987131209</v>
+        <v>854334.9606918532</v>
       </c>
       <c r="AE9" t="n">
-        <v>1056889.630848425</v>
+        <v>1168938.783816991</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.338840998094262e-06</v>
+        <v>2.289268903093138e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>16</v>
+        <v>15.38194444444444</v>
       </c>
       <c r="AH9" t="n">
-        <v>956021.5678341638</v>
+        <v>1057376.906905384</v>
       </c>
     </row>
     <row r="10">
@@ -50897,28 +50897,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>761.4084265943994</v>
+        <v>843.3010885731317</v>
       </c>
       <c r="AB10" t="n">
-        <v>1041.792600235508</v>
+        <v>1153.841753204073</v>
       </c>
       <c r="AC10" t="n">
-        <v>942.3653766341278</v>
+        <v>1043.720715705348</v>
       </c>
       <c r="AD10" t="n">
-        <v>761408.4265943994</v>
+        <v>843301.0885731317</v>
       </c>
       <c r="AE10" t="n">
-        <v>1041792.600235508</v>
+        <v>1153841.753204073</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.349943738210824e-06</v>
+        <v>2.308253351376503e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>16</v>
+        <v>15.25462962962963</v>
       </c>
       <c r="AH10" t="n">
-        <v>942365.3766341278</v>
+        <v>1043720.715705348</v>
       </c>
     </row>
     <row r="11">
@@ -51003,28 +51003,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>751.1101042380444</v>
+        <v>822.9155411535046</v>
       </c>
       <c r="AB11" t="n">
-        <v>1027.701981257626</v>
+        <v>1125.94934787766</v>
       </c>
       <c r="AC11" t="n">
-        <v>929.619546555187</v>
+        <v>1018.490322396051</v>
       </c>
       <c r="AD11" t="n">
-        <v>751110.1042380445</v>
+        <v>822915.5411535046</v>
       </c>
       <c r="AE11" t="n">
-        <v>1027701.981257626</v>
+        <v>1125949.34787766</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.359018093113784e-06</v>
+        <v>2.323769486992716e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>16</v>
+        <v>15.15432098765432</v>
       </c>
       <c r="AH11" t="n">
-        <v>929619.546555187</v>
+        <v>1018490.322396051</v>
       </c>
     </row>
     <row r="12">
@@ -51109,28 +51109,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>743.0008292807415</v>
+        <v>814.8062661962016</v>
       </c>
       <c r="AB12" t="n">
-        <v>1016.606513505082</v>
+        <v>1114.853880125116</v>
       </c>
       <c r="AC12" t="n">
-        <v>919.583014672359</v>
+        <v>1008.453790513223</v>
       </c>
       <c r="AD12" t="n">
-        <v>743000.8292807415</v>
+        <v>814806.2661962016</v>
       </c>
       <c r="AE12" t="n">
-        <v>1016606.513505082</v>
+        <v>1114853.880125116</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.365637034337118e-06</v>
+        <v>2.335087138853952e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>16</v>
+        <v>15.08101851851852</v>
       </c>
       <c r="AH12" t="n">
-        <v>919583.014672359</v>
+        <v>1008453.790513223</v>
       </c>
     </row>
     <row r="13">
@@ -51215,28 +51215,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>734.6114266913729</v>
+        <v>806.416863606833</v>
       </c>
       <c r="AB13" t="n">
-        <v>1005.127762767987</v>
+        <v>1103.375129388021</v>
       </c>
       <c r="AC13" t="n">
-        <v>909.1997797950844</v>
+        <v>998.0705556359479</v>
       </c>
       <c r="AD13" t="n">
-        <v>734611.4266913729</v>
+        <v>806416.8636068329</v>
       </c>
       <c r="AE13" t="n">
-        <v>1005127.762767987</v>
+        <v>1103375.129388021</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.371775568536179e-06</v>
+        <v>2.345583348241391e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>16</v>
+        <v>15.01157407407407</v>
       </c>
       <c r="AH13" t="n">
-        <v>909199.7797950844</v>
+        <v>998070.555635948</v>
       </c>
     </row>
     <row r="14">
@@ -51321,28 +51321,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>717.6343571727479</v>
+        <v>799.6122704975007</v>
       </c>
       <c r="AB14" t="n">
-        <v>981.8989872771568</v>
+        <v>1094.064784898372</v>
       </c>
       <c r="AC14" t="n">
-        <v>888.1879260353081</v>
+        <v>989.6487773572402</v>
       </c>
       <c r="AD14" t="n">
-        <v>717634.3571727478</v>
+        <v>799612.2704975008</v>
       </c>
       <c r="AE14" t="n">
-        <v>981898.9872771568</v>
+        <v>1094064.784898372</v>
       </c>
       <c r="AF14" t="n">
-        <v>1.376312745987659e-06</v>
+        <v>2.353341416049496e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>15</v>
+        <v>14.96141975308642</v>
       </c>
       <c r="AH14" t="n">
-        <v>888187.9260353082</v>
+        <v>989648.7773572402</v>
       </c>
     </row>
     <row r="15">
@@ -51427,28 +51427,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>710.3225610183069</v>
+        <v>792.3004743430597</v>
       </c>
       <c r="AB15" t="n">
-        <v>971.8946652049704</v>
+        <v>1084.060462826186</v>
       </c>
       <c r="AC15" t="n">
-        <v>879.1384024205371</v>
+        <v>980.5992537424693</v>
       </c>
       <c r="AD15" t="n">
-        <v>710322.561018307</v>
+        <v>792300.4743430597</v>
       </c>
       <c r="AE15" t="n">
-        <v>971894.6652049704</v>
+        <v>1084060.462826186</v>
       </c>
       <c r="AF15" t="n">
-        <v>1.381063437672149e-06</v>
+        <v>2.361464569401513e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>14.91126543209877</v>
       </c>
       <c r="AH15" t="n">
-        <v>879138.4024205371</v>
+        <v>980599.2537424692</v>
       </c>
     </row>
     <row r="16">
@@ -51533,28 +51533,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>702.605836394787</v>
+        <v>784.58374971954</v>
       </c>
       <c r="AB16" t="n">
-        <v>961.3363021372071</v>
+        <v>1073.502099758422</v>
       </c>
       <c r="AC16" t="n">
-        <v>869.5877147052054</v>
+        <v>971.0485660271377</v>
       </c>
       <c r="AD16" t="n">
-        <v>702605.8363947871</v>
+        <v>784583.74971954</v>
       </c>
       <c r="AE16" t="n">
-        <v>961336.3021372071</v>
+        <v>1073502.099758422</v>
       </c>
       <c r="AF16" t="n">
-        <v>1.386241157822662e-06</v>
+        <v>2.370317893841352e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>15</v>
+        <v>14.85725308641975</v>
       </c>
       <c r="AH16" t="n">
-        <v>869587.7147052054</v>
+        <v>971048.5660271377</v>
       </c>
     </row>
     <row r="17">
@@ -51639,28 +51639,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>697.9990035613979</v>
+        <v>779.9769168861509</v>
       </c>
       <c r="AB17" t="n">
-        <v>955.0330302154433</v>
+        <v>1067.198827836658</v>
       </c>
       <c r="AC17" t="n">
-        <v>863.886018208957</v>
+        <v>965.3468695308892</v>
       </c>
       <c r="AD17" t="n">
-        <v>697999.0035613979</v>
+        <v>779976.9168861508</v>
       </c>
       <c r="AE17" t="n">
-        <v>955033.0302154433</v>
+        <v>1067198.827836658</v>
       </c>
       <c r="AF17" t="n">
-        <v>1.388002650245001e-06</v>
+        <v>2.373329849578617e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>15</v>
+        <v>14.83796296296297</v>
       </c>
       <c r="AH17" t="n">
-        <v>863886.018208957</v>
+        <v>965346.8695308892</v>
       </c>
     </row>
     <row r="18">
@@ -51745,28 +51745,28 @@
         <v>10</v>
       </c>
       <c r="AA18" t="n">
-        <v>690.766868669069</v>
+        <v>772.744781993822</v>
       </c>
       <c r="AB18" t="n">
-        <v>945.1377041964857</v>
+        <v>1057.303501817701</v>
       </c>
       <c r="AC18" t="n">
-        <v>854.9350882170714</v>
+        <v>956.3959395390034</v>
       </c>
       <c r="AD18" t="n">
-        <v>690766.868669069</v>
+        <v>772744.781993822</v>
       </c>
       <c r="AE18" t="n">
-        <v>945137.7041964857</v>
+        <v>1057303.501817701</v>
       </c>
       <c r="AF18" t="n">
-        <v>1.390404685366372e-06</v>
+        <v>2.377437061947615e-06</v>
       </c>
       <c r="AG18" t="n">
-        <v>15</v>
+        <v>14.81095679012346</v>
       </c>
       <c r="AH18" t="n">
-        <v>854935.0882170715</v>
+        <v>956395.9395390034</v>
       </c>
     </row>
     <row r="19">
@@ -51851,28 +51851,28 @@
         <v>10</v>
       </c>
       <c r="AA19" t="n">
-        <v>683.8597759962294</v>
+        <v>765.8376893209823</v>
       </c>
       <c r="AB19" t="n">
-        <v>935.6871152820837</v>
+        <v>1047.852912903299</v>
       </c>
       <c r="AC19" t="n">
-        <v>846.3864502446752</v>
+        <v>947.8473015666074</v>
       </c>
       <c r="AD19" t="n">
-        <v>683859.7759962294</v>
+        <v>765837.6893209823</v>
       </c>
       <c r="AE19" t="n">
-        <v>935687.1152820837</v>
+        <v>1047852.912903299</v>
       </c>
       <c r="AF19" t="n">
-        <v>1.394835105701346e-06</v>
+        <v>2.385012586983765e-06</v>
       </c>
       <c r="AG19" t="n">
-        <v>15</v>
+        <v>14.76466049382716</v>
       </c>
       <c r="AH19" t="n">
-        <v>846386.4502446752</v>
+        <v>947847.3015666073</v>
       </c>
     </row>
     <row r="20">
@@ -51957,28 +51957,28 @@
         <v>10</v>
       </c>
       <c r="AA20" t="n">
-        <v>678.0355042063679</v>
+        <v>760.0134175311206</v>
       </c>
       <c r="AB20" t="n">
-        <v>927.7180896704581</v>
+        <v>1039.883887291673</v>
       </c>
       <c r="AC20" t="n">
-        <v>839.1779772528255</v>
+        <v>940.6388285747576</v>
       </c>
       <c r="AD20" t="n">
-        <v>678035.5042063679</v>
+        <v>760013.4175311206</v>
       </c>
       <c r="AE20" t="n">
-        <v>927718.0896704581</v>
+        <v>1039883.887291673</v>
       </c>
       <c r="AF20" t="n">
-        <v>1.397610790730487e-06</v>
+        <v>2.389758699054607e-06</v>
       </c>
       <c r="AG20" t="n">
-        <v>15</v>
+        <v>14.7337962962963</v>
       </c>
       <c r="AH20" t="n">
-        <v>839177.9772528255</v>
+        <v>940638.8285747576</v>
       </c>
     </row>
     <row r="21">
@@ -52063,28 +52063,28 @@
         <v>10</v>
       </c>
       <c r="AA21" t="n">
-        <v>675.565522670425</v>
+        <v>757.5434359951779</v>
       </c>
       <c r="AB21" t="n">
-        <v>924.3385519650864</v>
+        <v>1036.504349586301</v>
       </c>
       <c r="AC21" t="n">
-        <v>836.1209778828436</v>
+        <v>937.5818292047757</v>
       </c>
       <c r="AD21" t="n">
-        <v>675565.522670425</v>
+        <v>757543.4359951779</v>
       </c>
       <c r="AE21" t="n">
-        <v>924338.5519650864</v>
+        <v>1036504.349586302</v>
       </c>
       <c r="AF21" t="n">
-        <v>1.396863490914949e-06</v>
+        <v>2.388480899650918e-06</v>
       </c>
       <c r="AG21" t="n">
-        <v>15</v>
+        <v>14.74151234567901</v>
       </c>
       <c r="AH21" t="n">
-        <v>836120.9778828436</v>
+        <v>937581.8292047756</v>
       </c>
     </row>
     <row r="22">
@@ -52169,28 +52169,28 @@
         <v>10</v>
       </c>
       <c r="AA22" t="n">
-        <v>674.0448318065196</v>
+        <v>756.0227451312725</v>
       </c>
       <c r="AB22" t="n">
-        <v>922.2578756369453</v>
+        <v>1034.42367325816</v>
       </c>
       <c r="AC22" t="n">
-        <v>834.2388783832124</v>
+        <v>935.6997297051444</v>
       </c>
       <c r="AD22" t="n">
-        <v>674044.8318065197</v>
+        <v>756022.7451312725</v>
       </c>
       <c r="AE22" t="n">
-        <v>922257.8756369452</v>
+        <v>1034423.67325816</v>
       </c>
       <c r="AF22" t="n">
-        <v>1.399692554502342e-06</v>
+        <v>2.393318283107737e-06</v>
       </c>
       <c r="AG22" t="n">
-        <v>15</v>
+        <v>14.71450617283951</v>
       </c>
       <c r="AH22" t="n">
-        <v>834238.8783832124</v>
+        <v>935699.7297051444</v>
       </c>
     </row>
     <row r="23">
@@ -52275,28 +52275,28 @@
         <v>10</v>
       </c>
       <c r="AA23" t="n">
-        <v>676.4573184948596</v>
+        <v>758.4352318196125</v>
       </c>
       <c r="AB23" t="n">
-        <v>925.558746355333</v>
+        <v>1037.724543976548</v>
       </c>
       <c r="AC23" t="n">
-        <v>837.2247186330385</v>
+        <v>938.6855699549707</v>
       </c>
       <c r="AD23" t="n">
-        <v>676457.3184948596</v>
+        <v>758435.2318196124</v>
       </c>
       <c r="AE23" t="n">
-        <v>925558.746355333</v>
+        <v>1037724.543976548</v>
       </c>
       <c r="AF23" t="n">
-        <v>1.3998526901771e-06</v>
+        <v>2.39359209726567e-06</v>
       </c>
       <c r="AG23" t="n">
-        <v>15</v>
+        <v>14.71064814814815</v>
       </c>
       <c r="AH23" t="n">
-        <v>837224.7186330385</v>
+        <v>938685.5699549706</v>
       </c>
     </row>
   </sheetData>
@@ -52572,28 +52572,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>330.7528841225869</v>
+        <v>395.7710605105443</v>
       </c>
       <c r="AB2" t="n">
-        <v>452.5506878439353</v>
+        <v>541.5114251774394</v>
       </c>
       <c r="AC2" t="n">
-        <v>409.3598853549889</v>
+        <v>489.8303347745624</v>
       </c>
       <c r="AD2" t="n">
-        <v>330752.8841225869</v>
+        <v>395771.0605105443</v>
       </c>
       <c r="AE2" t="n">
-        <v>452550.6878439353</v>
+        <v>541511.4251774393</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.65098945908405e-06</v>
+        <v>3.538830840813876e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>17</v>
+        <v>16.02623456790123</v>
       </c>
       <c r="AH2" t="n">
-        <v>409359.8853549889</v>
+        <v>489830.3347745624</v>
       </c>
     </row>
   </sheetData>
@@ -52869,28 +52869,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>864.7299678138742</v>
+        <v>958.5124075646681</v>
       </c>
       <c r="AB2" t="n">
-        <v>1183.161691156688</v>
+        <v>1311.478962612964</v>
       </c>
       <c r="AC2" t="n">
-        <v>1070.242399930556</v>
+        <v>1186.313251093466</v>
       </c>
       <c r="AD2" t="n">
-        <v>864729.9678138741</v>
+        <v>958512.4075646681</v>
       </c>
       <c r="AE2" t="n">
-        <v>1183161.691156688</v>
+        <v>1311478.962612964</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.155829060719027e-06</v>
+        <v>2.129537066487463e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>20</v>
+        <v>19.62191358024691</v>
       </c>
       <c r="AH2" t="n">
-        <v>1070242.399930556</v>
+        <v>1186313.251093466</v>
       </c>
     </row>
     <row r="3">
@@ -52975,28 +52975,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>660.6987256199438</v>
+        <v>745.0175805410869</v>
       </c>
       <c r="AB3" t="n">
-        <v>903.9971443638218</v>
+        <v>1019.365921552272</v>
       </c>
       <c r="AC3" t="n">
-        <v>817.7209256736987</v>
+        <v>922.0790686883793</v>
       </c>
       <c r="AD3" t="n">
-        <v>660698.7256199438</v>
+        <v>745017.5805410868</v>
       </c>
       <c r="AE3" t="n">
-        <v>903997.1443638218</v>
+        <v>1019365.921552272</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.370640076835569e-06</v>
+        <v>2.525311871479335e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>17</v>
+        <v>16.54706790123457</v>
       </c>
       <c r="AH3" t="n">
-        <v>817720.9256736988</v>
+        <v>922079.0686883793</v>
       </c>
     </row>
     <row r="4">
@@ -53081,28 +53081,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>599.5070052959627</v>
+        <v>674.5329570965979</v>
       </c>
       <c r="AB4" t="n">
-        <v>820.2719330283774</v>
+        <v>922.925750193398</v>
       </c>
       <c r="AC4" t="n">
-        <v>741.986330999037</v>
+        <v>834.8430119293653</v>
       </c>
       <c r="AD4" t="n">
-        <v>599507.0052959627</v>
+        <v>674532.9570965979</v>
       </c>
       <c r="AE4" t="n">
-        <v>820271.9330283774</v>
+        <v>922925.750193398</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.448122539682203e-06</v>
+        <v>2.668068081927963e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>16</v>
+        <v>15.66358024691358</v>
       </c>
       <c r="AH4" t="n">
-        <v>741986.330999037</v>
+        <v>834843.0119293652</v>
       </c>
     </row>
     <row r="5">
@@ -53187,28 +53187,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>571.4339053195938</v>
+        <v>646.2892649196368</v>
       </c>
       <c r="AB5" t="n">
-        <v>781.8610791429476</v>
+        <v>884.2814845331211</v>
       </c>
       <c r="AC5" t="n">
-        <v>707.2413550984604</v>
+        <v>799.8869007461378</v>
       </c>
       <c r="AD5" t="n">
-        <v>571433.9053195938</v>
+        <v>646289.2649196368</v>
       </c>
       <c r="AE5" t="n">
-        <v>781861.0791429476</v>
+        <v>884281.4845331211</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.488157105083233e-06</v>
+        <v>2.741829067751571e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.2391975308642</v>
       </c>
       <c r="AH5" t="n">
-        <v>707241.3550984605</v>
+        <v>799886.9007461378</v>
       </c>
     </row>
     <row r="6">
@@ -53293,28 +53293,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>551.9394603248162</v>
+        <v>617.587257658923</v>
       </c>
       <c r="AB6" t="n">
-        <v>755.1879194668777</v>
+        <v>845.0101319558192</v>
       </c>
       <c r="AC6" t="n">
-        <v>683.11384434586</v>
+        <v>764.3635509411239</v>
       </c>
       <c r="AD6" t="n">
-        <v>551939.4603248162</v>
+        <v>617587.257658923</v>
       </c>
       <c r="AE6" t="n">
-        <v>755187.9194668777</v>
+        <v>845010.1319558192</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.511495904590148e-06</v>
+        <v>2.784829231293381e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.00385802469136</v>
       </c>
       <c r="AH6" t="n">
-        <v>683113.84434586</v>
+        <v>764363.5509411239</v>
       </c>
     </row>
     <row r="7">
@@ -53399,28 +53399,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>526.3789193283873</v>
+        <v>601.3195302744508</v>
       </c>
       <c r="AB7" t="n">
-        <v>720.2148596240806</v>
+        <v>822.7519096669034</v>
       </c>
       <c r="AC7" t="n">
-        <v>651.4785642494617</v>
+        <v>744.2296221478512</v>
       </c>
       <c r="AD7" t="n">
-        <v>526378.9193283872</v>
+        <v>601319.5302744508</v>
       </c>
       <c r="AE7" t="n">
-        <v>720214.8596240806</v>
+        <v>822751.9096669034</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.52801530676003e-06</v>
+        <v>2.815265115311639e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>14.84182098765432</v>
       </c>
       <c r="AH7" t="n">
-        <v>651478.5642494616</v>
+        <v>744229.6221478512</v>
       </c>
     </row>
     <row r="8">
@@ -53505,28 +53505,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>512.3679363016021</v>
+        <v>587.3085472476657</v>
       </c>
       <c r="AB8" t="n">
-        <v>701.0444145258867</v>
+        <v>803.5814645687099</v>
       </c>
       <c r="AC8" t="n">
-        <v>634.1377195255509</v>
+        <v>726.8887774239404</v>
       </c>
       <c r="AD8" t="n">
-        <v>512367.9363016021</v>
+        <v>587308.5472476657</v>
       </c>
       <c r="AE8" t="n">
-        <v>701044.4145258868</v>
+        <v>803581.4645687098</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.540537131180616e-06</v>
+        <v>2.838335732022988e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>15</v>
+        <v>14.72222222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>634137.7195255508</v>
+        <v>726888.7774239404</v>
       </c>
     </row>
     <row r="9">
@@ -53611,28 +53611,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>514.7187672895301</v>
+        <v>589.6593782355936</v>
       </c>
       <c r="AB9" t="n">
-        <v>704.2609251949133</v>
+        <v>806.7979752377364</v>
       </c>
       <c r="AC9" t="n">
-        <v>637.0472509307266</v>
+        <v>729.7983088291161</v>
       </c>
       <c r="AD9" t="n">
-        <v>514718.7672895301</v>
+        <v>589659.3782355937</v>
       </c>
       <c r="AE9" t="n">
-        <v>704260.9251949133</v>
+        <v>806797.9752377364</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.539126221386748e-06</v>
+        <v>2.835736225914667e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.73765432098766</v>
       </c>
       <c r="AH9" t="n">
-        <v>637047.2509307266</v>
+        <v>729798.3088291161</v>
       </c>
     </row>
   </sheetData>
@@ -53908,28 +53908,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1116.794054240463</v>
+        <v>1223.645460890389</v>
       </c>
       <c r="AB2" t="n">
-        <v>1528.04689448821</v>
+        <v>1674.245703018006</v>
       </c>
       <c r="AC2" t="n">
-        <v>1382.21224350554</v>
+        <v>1514.458042940569</v>
       </c>
       <c r="AD2" t="n">
-        <v>1116794.054240463</v>
+        <v>1223645.460890389</v>
       </c>
       <c r="AE2" t="n">
-        <v>1528046.89448821</v>
+        <v>1674245.703018006</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.009916558914373e-06</v>
+        <v>1.804142230526534e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>22</v>
+        <v>21.62037037037037</v>
       </c>
       <c r="AH2" t="n">
-        <v>1382212.24350554</v>
+        <v>1514458.042940569</v>
       </c>
     </row>
     <row r="3">
@@ -54014,28 +54014,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>799.4252816000635</v>
+        <v>886.6785675675928</v>
       </c>
       <c r="AB3" t="n">
-        <v>1093.80893843953</v>
+        <v>1213.192733643608</v>
       </c>
       <c r="AC3" t="n">
-        <v>989.4173485253478</v>
+        <v>1097.407321871357</v>
       </c>
       <c r="AD3" t="n">
-        <v>799425.2816000636</v>
+        <v>886678.5675675928</v>
       </c>
       <c r="AE3" t="n">
-        <v>1093808.938439531</v>
+        <v>1213192.733643608</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.257089434147185e-06</v>
+        <v>2.245698533878514e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>18</v>
+        <v>17.36882716049383</v>
       </c>
       <c r="AH3" t="n">
-        <v>989417.3485253479</v>
+        <v>1097407.321871357</v>
       </c>
     </row>
     <row r="4">
@@ -54120,28 +54120,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>718.3753242749838</v>
+        <v>796.0001868561822</v>
       </c>
       <c r="AB4" t="n">
-        <v>982.9128111555972</v>
+        <v>1089.122572706436</v>
       </c>
       <c r="AC4" t="n">
-        <v>889.1049919857011</v>
+        <v>985.1782429604644</v>
       </c>
       <c r="AD4" t="n">
-        <v>718375.3242749837</v>
+        <v>796000.1868561822</v>
       </c>
       <c r="AE4" t="n">
-        <v>982912.8111555972</v>
+        <v>1089122.572706436</v>
       </c>
       <c r="AF4" t="n">
-        <v>1.346630878758659e-06</v>
+        <v>2.405657790096245e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>17</v>
+        <v>16.21527777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>889104.991985701</v>
+        <v>985178.2429604644</v>
       </c>
     </row>
     <row r="5">
@@ -54226,28 +54226,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>673.7712613177902</v>
+        <v>751.4813752450093</v>
       </c>
       <c r="AB5" t="n">
-        <v>921.8835644251874</v>
+        <v>1028.209970628676</v>
       </c>
       <c r="AC5" t="n">
-        <v>833.9002909081556</v>
+        <v>930.0790541336313</v>
       </c>
       <c r="AD5" t="n">
-        <v>673771.2613177901</v>
+        <v>751481.3752450093</v>
       </c>
       <c r="AE5" t="n">
-        <v>921883.5644251874</v>
+        <v>1028209.970628676</v>
       </c>
       <c r="AF5" t="n">
-        <v>1.392250603383722e-06</v>
+        <v>2.487154098889855e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>16</v>
+        <v>15.68287037037037</v>
       </c>
       <c r="AH5" t="n">
-        <v>833900.2909081556</v>
+        <v>930079.0541336313</v>
       </c>
     </row>
     <row r="6">
@@ -54332,28 +54332,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>649.4165966480518</v>
+        <v>726.9561183746787</v>
       </c>
       <c r="AB6" t="n">
-        <v>888.5604377720771</v>
+        <v>994.6534322007184</v>
       </c>
       <c r="AC6" t="n">
-        <v>803.7574766935163</v>
+        <v>899.7251046363408</v>
       </c>
       <c r="AD6" t="n">
-        <v>649416.5966480519</v>
+        <v>726956.1183746787</v>
       </c>
       <c r="AE6" t="n">
-        <v>888560.437772077</v>
+        <v>994653.4322007184</v>
       </c>
       <c r="AF6" t="n">
-        <v>1.423154287807151e-06</v>
+        <v>2.542361275814559e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>16</v>
+        <v>15.34336419753087</v>
       </c>
       <c r="AH6" t="n">
-        <v>803757.4766935164</v>
+        <v>899725.1046363408</v>
       </c>
     </row>
     <row r="7">
@@ -54438,28 +54438,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>633.897006554418</v>
+        <v>701.8934457492857</v>
       </c>
       <c r="AB7" t="n">
-        <v>867.3258499299745</v>
+        <v>960.3615778275749</v>
       </c>
       <c r="AC7" t="n">
-        <v>784.5494881121326</v>
+        <v>868.7060167156503</v>
       </c>
       <c r="AD7" t="n">
-        <v>633897.006554418</v>
+        <v>701893.4457492856</v>
       </c>
       <c r="AE7" t="n">
-        <v>867325.8499299745</v>
+        <v>960361.5778275749</v>
       </c>
       <c r="AF7" t="n">
-        <v>1.440360734812137e-06</v>
+        <v>2.573099337692049e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>16</v>
+        <v>15.16203703703703</v>
       </c>
       <c r="AH7" t="n">
-        <v>784549.4881121326</v>
+        <v>868706.0167156503</v>
       </c>
     </row>
     <row r="8">
@@ -54544,28 +54544,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>619.5123763613994</v>
+        <v>687.508815556267</v>
       </c>
       <c r="AB8" t="n">
-        <v>847.6441642947905</v>
+        <v>940.6798921923909</v>
       </c>
       <c r="AC8" t="n">
-        <v>766.7461949305514</v>
+        <v>850.9027235340692</v>
       </c>
       <c r="AD8" t="n">
-        <v>619512.3763613994</v>
+        <v>687508.815556267</v>
       </c>
       <c r="AE8" t="n">
-        <v>847644.1642947905</v>
+        <v>940679.8921923909</v>
       </c>
       <c r="AF8" t="n">
-        <v>1.454906974549905e-06</v>
+        <v>2.599085133424007e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>16</v>
+        <v>15.00771604938272</v>
       </c>
       <c r="AH8" t="n">
-        <v>766746.1949305513</v>
+        <v>850902.7235340691</v>
       </c>
     </row>
     <row r="9">
@@ -54650,28 +54650,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>596.1759893249464</v>
+        <v>673.8007623975939</v>
       </c>
       <c r="AB9" t="n">
-        <v>815.7142900227799</v>
+        <v>921.9239291040703</v>
       </c>
       <c r="AC9" t="n">
-        <v>737.8636630452014</v>
+        <v>833.9368032387382</v>
       </c>
       <c r="AD9" t="n">
-        <v>596175.9893249464</v>
+        <v>673800.7623975938</v>
       </c>
       <c r="AE9" t="n">
-        <v>815714.2900227798</v>
+        <v>921923.9291040703</v>
       </c>
       <c r="AF9" t="n">
-        <v>1.46764200933978e-06</v>
+        <v>2.621835343695176e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>15</v>
+        <v>14.87654320987655</v>
       </c>
       <c r="AH9" t="n">
-        <v>737863.6630452015</v>
+        <v>833936.8032387382</v>
       </c>
     </row>
     <row r="10">
@@ -54756,28 +54756,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>585.0448758043857</v>
+        <v>662.6696488770331</v>
       </c>
       <c r="AB10" t="n">
-        <v>800.484209433878</v>
+        <v>906.6938485151686</v>
       </c>
       <c r="AC10" t="n">
-        <v>724.0871199721522</v>
+        <v>820.1602601656889</v>
       </c>
       <c r="AD10" t="n">
-        <v>585044.8758043858</v>
+        <v>662669.648877033</v>
       </c>
       <c r="AE10" t="n">
-        <v>800484.2094338781</v>
+        <v>906693.8485151686</v>
       </c>
       <c r="AF10" t="n">
-        <v>1.476188632687651e-06</v>
+        <v>2.637103262588271e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>15</v>
+        <v>14.79166666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>724087.1199721522</v>
+        <v>820160.2601656889</v>
       </c>
     </row>
     <row r="11">
@@ -54862,28 +54862,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>574.9359376001634</v>
+        <v>652.5607106728108</v>
       </c>
       <c r="AB11" t="n">
-        <v>786.6527142079829</v>
+        <v>892.8623532892734</v>
       </c>
       <c r="AC11" t="n">
-        <v>711.5756832379908</v>
+        <v>807.6488234315276</v>
       </c>
       <c r="AD11" t="n">
-        <v>574935.9376001634</v>
+        <v>652560.7106728108</v>
       </c>
       <c r="AE11" t="n">
-        <v>786652.7142079829</v>
+        <v>892862.3532892735</v>
       </c>
       <c r="AF11" t="n">
-        <v>1.482018448613683e-06</v>
+        <v>2.647517803290185e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>15</v>
+        <v>14.7337962962963</v>
       </c>
       <c r="AH11" t="n">
-        <v>711575.6832379908</v>
+        <v>807648.8234315276</v>
       </c>
     </row>
     <row r="12">
@@ -54968,28 +54968,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>568.6022776953804</v>
+        <v>646.2270507680278</v>
       </c>
       <c r="AB12" t="n">
-        <v>777.9867213049044</v>
+        <v>884.1963603861949</v>
       </c>
       <c r="AC12" t="n">
-        <v>703.7367605347847</v>
+        <v>799.8099007283216</v>
       </c>
       <c r="AD12" t="n">
-        <v>568602.2776953804</v>
+        <v>646227.0507680278</v>
       </c>
       <c r="AE12" t="n">
-        <v>777986.7213049044</v>
+        <v>884196.3603861949</v>
       </c>
       <c r="AF12" t="n">
-        <v>1.486263460210308e-06</v>
+        <v>2.655101206713908e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>15</v>
+        <v>14.69135802469136</v>
       </c>
       <c r="AH12" t="n">
-        <v>703736.7605347848</v>
+        <v>799809.9007283216</v>
       </c>
     </row>
     <row r="13">
@@ -55074,28 +55074,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>570.5802411326134</v>
+        <v>648.2050142052608</v>
       </c>
       <c r="AB13" t="n">
-        <v>780.6930581413149</v>
+        <v>886.9026972226052</v>
       </c>
       <c r="AC13" t="n">
-        <v>706.1848083818959</v>
+        <v>802.2579485754327</v>
       </c>
       <c r="AD13" t="n">
-        <v>570580.2411326134</v>
+        <v>648205.0142052608</v>
       </c>
       <c r="AE13" t="n">
-        <v>780693.0581413149</v>
+        <v>886902.6972226052</v>
       </c>
       <c r="AF13" t="n">
-        <v>1.486206860055686e-06</v>
+        <v>2.655000094668258e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>15</v>
+        <v>14.69135802469136</v>
       </c>
       <c r="AH13" t="n">
-        <v>706184.8083818959</v>
+        <v>802257.9485754326</v>
       </c>
     </row>
   </sheetData>
